--- a/results_final.xlsx
+++ b/results_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\Team composition\SolvingTCPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C9FFD-F693-43E6-BEF3-87C53CD5F0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBAB03-2A86-487E-A204-79C1DE535969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>num_students</t>
   </si>
@@ -66,6 +66,72 @@
   </si>
   <si>
     <t>time_min_cpsat</t>
+  </si>
+  <si>
+    <t>soft_count_max_rc2</t>
+  </si>
+  <si>
+    <t>time_max_rc2</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data/students_preferences_7.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_14.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_21.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_28.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_35.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_42.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_49.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_56.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_63.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_70.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_77.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_84.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_91.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_98.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_105.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_112.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_119.txt</t>
+  </si>
+  <si>
+    <t>data/students_preferences_126.txt</t>
+  </si>
+  <si>
+    <t>Timeout (quá 300s)</t>
   </si>
 </sst>
 </file>
@@ -121,11 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,713 +495,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>155</v>
       </c>
       <c r="C2">
         <v>155</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>63</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>49</v>
       </c>
       <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>49</v>
+      </c>
+      <c r="K2">
+        <v>1.94549560546875E-3</v>
+      </c>
+      <c r="L2">
         <v>2.1610260009765621E-3</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>1.72266960144043E-2</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>9.0470314025878906E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1289</v>
       </c>
       <c r="C3">
         <v>1289</v>
       </c>
       <c r="D3">
-        <v>469</v>
+        <v>1289</v>
       </c>
       <c r="E3">
         <v>469</v>
       </c>
       <c r="F3">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="G3">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>425</v>
       </c>
       <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3">
+        <v>425</v>
+      </c>
+      <c r="K3">
+        <v>8.0628395080566406E-3</v>
+      </c>
+      <c r="L3">
         <v>1.003265380859375E-3</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.1016368865966797</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>7.4251651763916016E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>21</v>
-      </c>
-      <c r="B4">
-        <v>4432</v>
       </c>
       <c r="C4">
         <v>4432</v>
       </c>
       <c r="D4">
-        <v>1561</v>
+        <v>4432</v>
       </c>
       <c r="E4">
         <v>1561</v>
       </c>
       <c r="F4">
-        <v>1463</v>
+        <v>1561</v>
       </c>
       <c r="G4">
-        <v>669</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>1463</v>
       </c>
       <c r="I4">
+        <v>669</v>
+      </c>
+      <c r="J4">
+        <v>1463</v>
+      </c>
+      <c r="K4">
+        <v>0.33970308303833002</v>
+      </c>
+      <c r="L4">
         <v>3.9999485015869141E-3</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.50190043449401855</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.43686437606811518</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
         <v>28</v>
-      </c>
-      <c r="B5">
-        <v>10613</v>
       </c>
       <c r="C5">
         <v>10613</v>
       </c>
       <c r="D5">
-        <v>3682</v>
+        <v>10613</v>
       </c>
       <c r="E5">
         <v>3682</v>
       </c>
       <c r="F5">
-        <v>3509</v>
+        <v>3682</v>
       </c>
       <c r="G5">
-        <v>1400</v>
+        <v>145</v>
       </c>
       <c r="H5">
         <v>3509</v>
       </c>
       <c r="I5">
+        <v>1400</v>
+      </c>
+      <c r="J5">
+        <v>3509</v>
+      </c>
+      <c r="K5">
+        <v>23.922803878784102</v>
+      </c>
+      <c r="L5">
         <v>1.095890998840332E-2</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>1.6595757007598879</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1.3627457618713379</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
         <v>35</v>
-      </c>
-      <c r="B6">
-        <v>20861</v>
       </c>
       <c r="C6">
         <v>20861</v>
       </c>
       <c r="D6">
-        <v>7175</v>
+        <v>20861</v>
       </c>
       <c r="E6">
         <v>7175</v>
       </c>
       <c r="F6">
-        <v>6847</v>
-      </c>
-      <c r="G6">
-        <v>3162</v>
+        <v>7175</v>
       </c>
       <c r="H6">
         <v>6847</v>
       </c>
       <c r="I6">
+        <v>3162</v>
+      </c>
+      <c r="J6">
+        <v>6847</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
         <v>1.9235134124755859E-2</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>3.7910809516906738</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>2.8568763732910161</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
         <v>42</v>
-      </c>
-      <c r="B7">
-        <v>36205</v>
       </c>
       <c r="C7">
         <v>36205</v>
       </c>
       <c r="D7">
-        <v>12383</v>
+        <v>36205</v>
       </c>
       <c r="E7">
         <v>12383</v>
       </c>
       <c r="F7">
-        <v>11968</v>
-      </c>
-      <c r="G7">
-        <v>5002</v>
+        <v>12383</v>
       </c>
       <c r="H7">
         <v>11968</v>
       </c>
       <c r="I7">
+        <v>5002</v>
+      </c>
+      <c r="J7">
+        <v>11968</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
         <v>3.072452545166016E-2</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>6.3169553279876709</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>5.3100371360778809</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
         <v>49</v>
-      </c>
-      <c r="B8">
-        <v>57674</v>
       </c>
       <c r="C8">
         <v>57674</v>
       </c>
       <c r="D8">
-        <v>19649</v>
+        <v>57674</v>
       </c>
       <c r="E8">
         <v>19649</v>
       </c>
       <c r="F8">
-        <v>19041</v>
-      </c>
-      <c r="G8">
-        <v>8122</v>
+        <v>19649</v>
       </c>
       <c r="H8">
         <v>19041</v>
       </c>
       <c r="I8">
+        <v>8122</v>
+      </c>
+      <c r="J8">
+        <v>19041</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
         <v>3.8708209991455078E-2</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>14.66130304336548</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>11.93607592582703</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
         <v>56</v>
-      </c>
-      <c r="B9">
-        <v>86297</v>
       </c>
       <c r="C9">
         <v>86297</v>
       </c>
       <c r="D9">
-        <v>29316</v>
+        <v>86297</v>
       </c>
       <c r="E9">
         <v>29316</v>
       </c>
       <c r="F9">
-        <v>28388</v>
-      </c>
-      <c r="G9">
-        <v>12092</v>
+        <v>29316</v>
       </c>
       <c r="H9">
         <v>28388</v>
       </c>
       <c r="I9">
+        <v>12092</v>
+      </c>
+      <c r="J9">
+        <v>28388</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9">
         <v>6.7197322845458984E-2</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>17.342341423034672</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>16.559338808059689</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
         <v>63</v>
-      </c>
-      <c r="B10">
-        <v>123103</v>
       </c>
       <c r="C10">
         <v>123103</v>
       </c>
       <c r="D10">
-        <v>41727</v>
+        <v>123103</v>
       </c>
       <c r="E10">
         <v>41727</v>
       </c>
       <c r="F10">
-        <v>40592</v>
-      </c>
-      <c r="G10">
-        <v>17165</v>
+        <v>41727</v>
       </c>
       <c r="H10">
         <v>40592</v>
       </c>
       <c r="I10">
+        <v>17165</v>
+      </c>
+      <c r="J10">
+        <v>40592</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
         <v>8.9046716690063477E-2</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>34.250863790512078</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>21.03659200668335</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
         <v>70</v>
-      </c>
-      <c r="B11">
-        <v>169121</v>
       </c>
       <c r="C11">
         <v>169121</v>
       </c>
       <c r="D11">
-        <v>57225</v>
+        <v>169121</v>
       </c>
       <c r="E11">
         <v>57225</v>
       </c>
       <c r="F11">
-        <v>55737</v>
-      </c>
-      <c r="G11">
-        <v>22884</v>
+        <v>57225</v>
       </c>
       <c r="H11">
         <v>55737</v>
       </c>
       <c r="I11">
+        <v>22884</v>
+      </c>
+      <c r="J11">
+        <v>55737</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
         <v>0.14618134498596189</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>47.603183031082153</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>27.43237209320068</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
         <v>77</v>
-      </c>
-      <c r="B12">
-        <v>225380</v>
       </c>
       <c r="C12">
         <v>225380</v>
       </c>
       <c r="D12">
-        <v>76153</v>
+        <v>225380</v>
       </c>
       <c r="E12">
         <v>76153</v>
       </c>
       <c r="F12">
-        <v>74285</v>
-      </c>
-      <c r="G12">
-        <v>31259</v>
+        <v>76153</v>
       </c>
       <c r="H12">
         <v>74285</v>
       </c>
       <c r="I12">
+        <v>31259</v>
+      </c>
+      <c r="J12">
+        <v>74285</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12">
         <v>0.1979711055755615</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>65.654266357421875</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>33.948332071304321</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
         <v>84</v>
-      </c>
-      <c r="B13">
-        <v>292909</v>
       </c>
       <c r="C13">
         <v>292909</v>
       </c>
       <c r="D13">
-        <v>98854</v>
+        <v>292909</v>
       </c>
       <c r="E13">
         <v>98854</v>
       </c>
       <c r="F13">
-        <v>96481</v>
-      </c>
-      <c r="G13">
-        <v>40905</v>
+        <v>98854</v>
       </c>
       <c r="H13">
         <v>96481</v>
       </c>
       <c r="I13">
+        <v>40905</v>
+      </c>
+      <c r="J13">
+        <v>96481</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
         <v>0.34612751007080078</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>85.225316047668457</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>44.780060768127441</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
         <v>91</v>
-      </c>
-      <c r="B14">
-        <v>372737</v>
       </c>
       <c r="C14">
         <v>372737</v>
       </c>
       <c r="D14">
-        <v>125671</v>
+        <v>372737</v>
       </c>
       <c r="E14">
         <v>125671</v>
       </c>
       <c r="F14">
-        <v>122560</v>
-      </c>
-      <c r="G14">
-        <v>52142</v>
+        <v>125671</v>
       </c>
       <c r="H14">
         <v>122560</v>
       </c>
       <c r="I14">
+        <v>52142</v>
+      </c>
+      <c r="J14">
+        <v>122560</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
         <v>0.31664204597473139</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>119.6599636077881</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>56.414396286010742</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
         <v>98</v>
-      </c>
-      <c r="B15">
-        <v>465893</v>
       </c>
       <c r="C15">
         <v>465893</v>
       </c>
       <c r="D15">
-        <v>156947</v>
+        <v>465893</v>
       </c>
       <c r="E15">
         <v>156947</v>
       </c>
       <c r="F15">
-        <v>153219</v>
-      </c>
-      <c r="G15">
-        <v>66247</v>
+        <v>156947</v>
       </c>
       <c r="H15">
         <v>153219</v>
       </c>
       <c r="I15">
+        <v>66247</v>
+      </c>
+      <c r="J15">
+        <v>153219</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15">
         <v>0.3383631706237793</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>160.7150967121124</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>69.904790639877319</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
         <v>105</v>
-      </c>
-      <c r="B16">
-        <v>573406</v>
       </c>
       <c r="C16">
         <v>573406</v>
       </c>
       <c r="D16">
-        <v>193025</v>
+        <v>573406</v>
       </c>
       <c r="E16">
         <v>193025</v>
       </c>
       <c r="F16">
-        <v>188490</v>
-      </c>
-      <c r="G16">
-        <v>81006</v>
+        <v>193025</v>
       </c>
       <c r="H16">
         <v>188490</v>
       </c>
       <c r="I16">
+        <v>81006</v>
+      </c>
+      <c r="J16">
+        <v>188490</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16">
         <v>0.59724235534667969</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>138.1100797653198</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>93.544160127639771</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
         <v>112</v>
-      </c>
-      <c r="B17">
-        <v>696305</v>
       </c>
       <c r="C17">
         <v>696305</v>
       </c>
       <c r="D17">
-        <v>234248</v>
+        <v>696305</v>
       </c>
       <c r="E17">
         <v>234248</v>
       </c>
       <c r="F17">
-        <v>228514</v>
-      </c>
-      <c r="G17">
-        <v>100886</v>
+        <v>234248</v>
       </c>
       <c r="H17">
         <v>228514</v>
       </c>
       <c r="I17">
+        <v>100886</v>
+      </c>
+      <c r="J17">
+        <v>228514</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17">
         <v>0.52377843856811523</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>257.56480264663702</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>122.326681137085</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
         <v>119</v>
-      </c>
-      <c r="B18">
-        <v>835619</v>
       </c>
       <c r="C18">
         <v>835619</v>
       </c>
       <c r="D18">
-        <v>280959</v>
+        <v>835619</v>
       </c>
       <c r="E18">
         <v>280959</v>
       </c>
       <c r="F18">
-        <v>275134</v>
-      </c>
-      <c r="G18">
-        <v>115685</v>
+        <v>280959</v>
       </c>
       <c r="H18">
         <v>275134</v>
       </c>
       <c r="I18">
+        <v>115685</v>
+      </c>
+      <c r="J18">
+        <v>275134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18">
         <v>1.0308103561401369</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>418.03095030784613</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>65.597180366516113</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
         <v>126</v>
-      </c>
-      <c r="B19">
-        <v>992377</v>
       </c>
       <c r="C19">
         <v>992377</v>
       </c>
       <c r="D19">
-        <v>333501</v>
+        <v>992377</v>
       </c>
       <c r="E19">
         <v>333501</v>
       </c>
       <c r="F19">
-        <v>326282</v>
-      </c>
-      <c r="G19">
-        <v>137934</v>
+        <v>333501</v>
       </c>
       <c r="H19">
         <v>326282</v>
       </c>
       <c r="I19">
+        <v>137934</v>
+      </c>
+      <c r="J19">
+        <v>326282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19">
         <v>1.1281857490539551</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>308.66505146026611</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>207.67683935165411</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I20">
-        <f>SUM(I2:I19)</f>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>SUM(L2:L19)</f>
         <v>4.8883371353149414</v>
       </c>
-      <c r="J20">
-        <f t="shared" ref="J20:K20" si="0">SUM(J2:J19)</f>
+      <c r="M20">
+        <f t="shared" ref="M20:N20" si="0">SUM(M2:M19)</f>
         <v>1679.8715941905975</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>781.20664191246033</v>
       </c>
-      <c r="L20">
-        <f>SUM(I20:K20)</f>
+      <c r="O20">
+        <f>SUM(L20:N20)</f>
         <v>2465.9665732383728</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N8">
+    <sortCondition ref="B2:B8"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_final.xlsx
+++ b/results_final.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBAB03-2A86-487E-A204-79C1DE535969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDF57B-AFD5-4AED-9079-D4E8C4C1A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="rc2" sheetId="2" r:id="rId2"/>
+    <sheet name="cp-sat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
   <si>
     <t>num_students</t>
   </si>
@@ -131,7 +133,7 @@
     <t>data/students_preferences_126.txt</t>
   </si>
   <si>
-    <t>Timeout (quá 300s)</t>
+    <t>Timeout (quá 450s)</t>
   </si>
 </sst>
 </file>
@@ -497,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,6 +760,9 @@
       <c r="F6">
         <v>7175</v>
       </c>
+      <c r="G6">
+        <v>293</v>
+      </c>
       <c r="H6">
         <v>6847</v>
       </c>
@@ -799,6 +804,9 @@
       <c r="F7">
         <v>12383</v>
       </c>
+      <c r="G7">
+        <v>373</v>
+      </c>
       <c r="H7">
         <v>11968</v>
       </c>
@@ -840,6 +848,9 @@
       <c r="F8">
         <v>19649</v>
       </c>
+      <c r="G8">
+        <v>559</v>
+      </c>
       <c r="H8">
         <v>19041</v>
       </c>
@@ -881,6 +892,9 @@
       <c r="F9">
         <v>29316</v>
       </c>
+      <c r="G9">
+        <v>872</v>
+      </c>
       <c r="H9">
         <v>28388</v>
       </c>
@@ -922,6 +936,9 @@
       <c r="F10">
         <v>41727</v>
       </c>
+      <c r="G10">
+        <v>1072</v>
+      </c>
       <c r="H10">
         <v>40592</v>
       </c>
@@ -963,6 +980,9 @@
       <c r="F11">
         <v>57225</v>
       </c>
+      <c r="G11">
+        <v>1418</v>
+      </c>
       <c r="H11">
         <v>55737</v>
       </c>
@@ -1004,6 +1024,9 @@
       <c r="F12">
         <v>76153</v>
       </c>
+      <c r="G12">
+        <v>1791</v>
+      </c>
       <c r="H12">
         <v>74285</v>
       </c>
@@ -1045,6 +1068,9 @@
       <c r="F13">
         <v>98854</v>
       </c>
+      <c r="G13">
+        <v>2289</v>
+      </c>
       <c r="H13">
         <v>96481</v>
       </c>
@@ -1086,6 +1112,9 @@
       <c r="F14">
         <v>125671</v>
       </c>
+      <c r="G14">
+        <v>3020</v>
+      </c>
       <c r="H14">
         <v>122560</v>
       </c>
@@ -1127,6 +1156,9 @@
       <c r="F15">
         <v>156947</v>
       </c>
+      <c r="G15">
+        <v>3630</v>
+      </c>
       <c r="H15">
         <v>153219</v>
       </c>
@@ -1168,6 +1200,9 @@
       <c r="F16">
         <v>193025</v>
       </c>
+      <c r="G16">
+        <v>4430</v>
+      </c>
       <c r="H16">
         <v>188490</v>
       </c>
@@ -1209,6 +1244,9 @@
       <c r="F17">
         <v>234248</v>
       </c>
+      <c r="G17">
+        <v>5622</v>
+      </c>
       <c r="H17">
         <v>228514</v>
       </c>
@@ -1250,6 +1288,9 @@
       <c r="F18">
         <v>280959</v>
       </c>
+      <c r="G18">
+        <v>5706</v>
+      </c>
       <c r="H18">
         <v>275134</v>
       </c>
@@ -1290,6 +1331,9 @@
       </c>
       <c r="F19">
         <v>333501</v>
+      </c>
+      <c r="G19">
+        <v>7093</v>
       </c>
       <c r="H19">
         <v>326282</v>
@@ -1337,4 +1381,1043 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521FF04-3FBD-4AF9-8B6C-69EC3780CA0C}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>1.94549560546875E-3</v>
+      </c>
+      <c r="H2">
+        <v>2.1610260009765621E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1289</v>
+      </c>
+      <c r="D3">
+        <v>469</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>425</v>
+      </c>
+      <c r="G3">
+        <v>8.0628395080566406E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.003265380859375E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>4432</v>
+      </c>
+      <c r="D4">
+        <v>1561</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>1463</v>
+      </c>
+      <c r="G4">
+        <v>0.33970308303833002</v>
+      </c>
+      <c r="H4">
+        <v>3.9999485015869141E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>10613</v>
+      </c>
+      <c r="D5">
+        <v>3682</v>
+      </c>
+      <c r="E5">
+        <v>145</v>
+      </c>
+      <c r="F5">
+        <v>3509</v>
+      </c>
+      <c r="G5">
+        <v>23.922803878784102</v>
+      </c>
+      <c r="H5">
+        <v>1.095890998840332E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>20861</v>
+      </c>
+      <c r="D6">
+        <v>7175</v>
+      </c>
+      <c r="E6">
+        <v>293</v>
+      </c>
+      <c r="F6">
+        <v>6847</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1.9235134124755859E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>36205</v>
+      </c>
+      <c r="D7">
+        <v>12383</v>
+      </c>
+      <c r="E7">
+        <v>373</v>
+      </c>
+      <c r="F7">
+        <v>11968</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>3.072452545166016E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>57674</v>
+      </c>
+      <c r="D8">
+        <v>19649</v>
+      </c>
+      <c r="E8">
+        <v>559</v>
+      </c>
+      <c r="F8">
+        <v>19041</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>3.8708209991455078E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>86297</v>
+      </c>
+      <c r="D9">
+        <v>29316</v>
+      </c>
+      <c r="E9">
+        <v>872</v>
+      </c>
+      <c r="F9">
+        <v>28388</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>6.7197322845458984E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>123103</v>
+      </c>
+      <c r="D10">
+        <v>41727</v>
+      </c>
+      <c r="E10">
+        <v>1072</v>
+      </c>
+      <c r="F10">
+        <v>40592</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>8.9046716690063477E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>169121</v>
+      </c>
+      <c r="D11">
+        <v>57225</v>
+      </c>
+      <c r="E11">
+        <v>1418</v>
+      </c>
+      <c r="F11">
+        <v>55737</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>0.14618134498596189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>225380</v>
+      </c>
+      <c r="D12">
+        <v>76153</v>
+      </c>
+      <c r="E12">
+        <v>1791</v>
+      </c>
+      <c r="F12">
+        <v>74285</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>0.1979711055755615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>292909</v>
+      </c>
+      <c r="D13">
+        <v>98854</v>
+      </c>
+      <c r="E13">
+        <v>2289</v>
+      </c>
+      <c r="F13">
+        <v>96481</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>0.34612751007080078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>372737</v>
+      </c>
+      <c r="D14">
+        <v>125671</v>
+      </c>
+      <c r="E14">
+        <v>3020</v>
+      </c>
+      <c r="F14">
+        <v>122560</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>0.31664204597473139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>465893</v>
+      </c>
+      <c r="D15">
+        <v>156947</v>
+      </c>
+      <c r="E15">
+        <v>3630</v>
+      </c>
+      <c r="F15">
+        <v>153219</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>0.3383631706237793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>573406</v>
+      </c>
+      <c r="D16">
+        <v>193025</v>
+      </c>
+      <c r="E16">
+        <v>4430</v>
+      </c>
+      <c r="F16">
+        <v>188490</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>0.59724235534667969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>696305</v>
+      </c>
+      <c r="D17">
+        <v>234248</v>
+      </c>
+      <c r="E17">
+        <v>5622</v>
+      </c>
+      <c r="F17">
+        <v>228514</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>0.52377843856811523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>835619</v>
+      </c>
+      <c r="D18">
+        <v>280959</v>
+      </c>
+      <c r="E18">
+        <v>5706</v>
+      </c>
+      <c r="F18">
+        <v>275134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>1.0308103561401369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>126</v>
+      </c>
+      <c r="C19">
+        <v>992377</v>
+      </c>
+      <c r="D19">
+        <v>333501</v>
+      </c>
+      <c r="E19">
+        <v>7093</v>
+      </c>
+      <c r="F19">
+        <v>326282</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>1.1281857490539551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71875E24-4FCB-4927-AA79-509C31900EAF}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>1.72266960144043E-2</v>
+      </c>
+      <c r="H2">
+        <v>9.0470314025878906E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1289</v>
+      </c>
+      <c r="D3">
+        <v>469</v>
+      </c>
+      <c r="E3">
+        <v>175</v>
+      </c>
+      <c r="F3">
+        <v>425</v>
+      </c>
+      <c r="G3">
+        <v>0.1016368865966797</v>
+      </c>
+      <c r="H3">
+        <v>7.4251651763916016E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>4432</v>
+      </c>
+      <c r="D4">
+        <v>1561</v>
+      </c>
+      <c r="E4">
+        <v>669</v>
+      </c>
+      <c r="F4">
+        <v>1463</v>
+      </c>
+      <c r="G4">
+        <v>0.50190043449401855</v>
+      </c>
+      <c r="H4">
+        <v>0.43686437606811518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>10613</v>
+      </c>
+      <c r="D5">
+        <v>3682</v>
+      </c>
+      <c r="E5">
+        <v>1400</v>
+      </c>
+      <c r="F5">
+        <v>3509</v>
+      </c>
+      <c r="G5">
+        <v>1.6595757007598879</v>
+      </c>
+      <c r="H5">
+        <v>1.3627457618713379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>20861</v>
+      </c>
+      <c r="D6">
+        <v>7175</v>
+      </c>
+      <c r="E6">
+        <v>3162</v>
+      </c>
+      <c r="F6">
+        <v>6847</v>
+      </c>
+      <c r="G6">
+        <v>3.7910809516906738</v>
+      </c>
+      <c r="H6">
+        <v>2.8568763732910161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>36205</v>
+      </c>
+      <c r="D7">
+        <v>12383</v>
+      </c>
+      <c r="E7">
+        <v>5002</v>
+      </c>
+      <c r="F7">
+        <v>11968</v>
+      </c>
+      <c r="G7">
+        <v>6.3169553279876709</v>
+      </c>
+      <c r="H7">
+        <v>5.3100371360778809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>57674</v>
+      </c>
+      <c r="D8">
+        <v>19649</v>
+      </c>
+      <c r="E8">
+        <v>8122</v>
+      </c>
+      <c r="F8">
+        <v>19041</v>
+      </c>
+      <c r="G8">
+        <v>14.66130304336548</v>
+      </c>
+      <c r="H8">
+        <v>11.93607592582703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>86297</v>
+      </c>
+      <c r="D9">
+        <v>29316</v>
+      </c>
+      <c r="E9">
+        <v>12092</v>
+      </c>
+      <c r="F9">
+        <v>28388</v>
+      </c>
+      <c r="G9">
+        <v>17.342341423034672</v>
+      </c>
+      <c r="H9">
+        <v>16.559338808059689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>123103</v>
+      </c>
+      <c r="D10">
+        <v>41727</v>
+      </c>
+      <c r="E10">
+        <v>17165</v>
+      </c>
+      <c r="F10">
+        <v>40592</v>
+      </c>
+      <c r="G10">
+        <v>34.250863790512078</v>
+      </c>
+      <c r="H10">
+        <v>21.03659200668335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>169121</v>
+      </c>
+      <c r="D11">
+        <v>57225</v>
+      </c>
+      <c r="E11">
+        <v>22884</v>
+      </c>
+      <c r="F11">
+        <v>55737</v>
+      </c>
+      <c r="G11">
+        <v>47.603183031082153</v>
+      </c>
+      <c r="H11">
+        <v>27.43237209320068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>225380</v>
+      </c>
+      <c r="D12">
+        <v>76153</v>
+      </c>
+      <c r="E12">
+        <v>31259</v>
+      </c>
+      <c r="F12">
+        <v>74285</v>
+      </c>
+      <c r="G12">
+        <v>65.654266357421875</v>
+      </c>
+      <c r="H12">
+        <v>33.948332071304321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>292909</v>
+      </c>
+      <c r="D13">
+        <v>98854</v>
+      </c>
+      <c r="E13">
+        <v>40905</v>
+      </c>
+      <c r="F13">
+        <v>96481</v>
+      </c>
+      <c r="G13">
+        <v>85.225316047668457</v>
+      </c>
+      <c r="H13">
+        <v>44.780060768127441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>372737</v>
+      </c>
+      <c r="D14">
+        <v>125671</v>
+      </c>
+      <c r="E14">
+        <v>52142</v>
+      </c>
+      <c r="F14">
+        <v>122560</v>
+      </c>
+      <c r="G14">
+        <v>119.6599636077881</v>
+      </c>
+      <c r="H14">
+        <v>56.414396286010742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>465893</v>
+      </c>
+      <c r="D15">
+        <v>156947</v>
+      </c>
+      <c r="E15">
+        <v>66247</v>
+      </c>
+      <c r="F15">
+        <v>153219</v>
+      </c>
+      <c r="G15">
+        <v>160.7150967121124</v>
+      </c>
+      <c r="H15">
+        <v>69.904790639877319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>573406</v>
+      </c>
+      <c r="D16">
+        <v>193025</v>
+      </c>
+      <c r="E16">
+        <v>81006</v>
+      </c>
+      <c r="F16">
+        <v>188490</v>
+      </c>
+      <c r="G16">
+        <v>138.1100797653198</v>
+      </c>
+      <c r="H16">
+        <v>93.544160127639771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>696305</v>
+      </c>
+      <c r="D17">
+        <v>234248</v>
+      </c>
+      <c r="E17">
+        <v>100886</v>
+      </c>
+      <c r="F17">
+        <v>228514</v>
+      </c>
+      <c r="G17">
+        <v>257.56480264663702</v>
+      </c>
+      <c r="H17">
+        <v>122.326681137085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>835619</v>
+      </c>
+      <c r="D18">
+        <v>280959</v>
+      </c>
+      <c r="E18">
+        <v>115685</v>
+      </c>
+      <c r="F18">
+        <v>275134</v>
+      </c>
+      <c r="G18">
+        <v>418.03095030784613</v>
+      </c>
+      <c r="H18">
+        <v>65.597180366516113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>126</v>
+      </c>
+      <c r="C19">
+        <v>992377</v>
+      </c>
+      <c r="D19">
+        <v>333501</v>
+      </c>
+      <c r="E19">
+        <v>137934</v>
+      </c>
+      <c r="F19">
+        <v>326282</v>
+      </c>
+      <c r="G19">
+        <v>308.66505146026611</v>
+      </c>
+      <c r="H19">
+        <v>207.67683935165411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results_final.xlsx
+++ b/results_final.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDF57B-AFD5-4AED-9079-D4E8C4C1A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9D794E-5980-4A37-B630-B84F1567D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="rc2" sheetId="2" r:id="rId2"/>
-    <sheet name="cp-sat" sheetId="3" r:id="rId3"/>
+    <sheet name="fully_results" sheetId="1" r:id="rId1"/>
+    <sheet name="max_results" sheetId="4" r:id="rId2"/>
+    <sheet name="rc2" sheetId="2" r:id="rId3"/>
+    <sheet name="cp-sat" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="50">
   <si>
     <t>num_students</t>
   </si>
@@ -76,71 +77,122 @@
     <t>time_max_rc2</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>data/students_preferences_7.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_14.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_21.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_28.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_35.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_42.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_49.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_56.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_63.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_70.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_77.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_84.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_91.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_98.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_105.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_112.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_119.txt</t>
-  </si>
-  <si>
-    <t>data/students_preferences_126.txt</t>
-  </si>
-  <si>
     <t>Timeout (quá 450s)</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>sat_clauses</t>
+  </si>
+  <si>
+    <t>time_sat</t>
+  </si>
+  <si>
+    <t>solution_found</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>total_weight_min_rc2</t>
+  </si>
+  <si>
+    <t>total_weight_max_cpsat</t>
+  </si>
+  <si>
+    <t>total_weight_min_cpsat</t>
+  </si>
+  <si>
+    <t>max_num_7.txt</t>
+  </si>
+  <si>
+    <t>UNSAT</t>
+  </si>
+  <si>
+    <t>max_num_14.txt</t>
+  </si>
+  <si>
+    <t>max_num_21.txt</t>
+  </si>
+  <si>
+    <t>max_num_28.txt</t>
+  </si>
+  <si>
+    <t>max_num_35.txt</t>
+  </si>
+  <si>
+    <t>max_num_42.txt</t>
+  </si>
+  <si>
+    <t>max_num_49.txt</t>
+  </si>
+  <si>
+    <t>max_num_56.txt</t>
+  </si>
+  <si>
+    <t>max_num_63.txt</t>
+  </si>
+  <si>
+    <t>max_num_70.txt</t>
+  </si>
+  <si>
+    <t>max_num_77.txt</t>
+  </si>
+  <si>
+    <t>max_num_84.txt</t>
+  </si>
+  <si>
+    <t>max_num_91.txt</t>
+  </si>
+  <si>
+    <t>max_num_98.txt</t>
+  </si>
+  <si>
+    <t>max_num_105.txt</t>
+  </si>
+  <si>
+    <t>max_num_112.txt</t>
+  </si>
+  <si>
+    <t>max_num_119.txt</t>
+  </si>
+  <si>
+    <t>max_num_126.txt</t>
+  </si>
+  <si>
+    <t>hard_rc2</t>
+  </si>
+  <si>
+    <t>hard_cpsat</t>
+  </si>
+  <si>
+    <t>soft_max_rc2</t>
+  </si>
+  <si>
+    <t>soft_min_rc2</t>
+  </si>
+  <si>
+    <t>soft_max_cpsat</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>total_weight_max_rc2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>weight_max_rc2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +204,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,12 +248,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,886 +567,1290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:O20"/>
+    <sheetView topLeftCell="E1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" style="5" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="5"/>
+    <col min="21" max="21" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="R1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="str">
+        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_7.txt</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>251</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5">
+        <v>155</v>
+      </c>
+      <c r="G2" s="5">
+        <v>155</v>
+      </c>
+      <c r="H2" s="5">
+        <v>63</v>
+      </c>
+      <c r="I2" s="5">
+        <v>63</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1.94549560546875E-3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2.1610260009765621E-3</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1.72266960144043E-2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>9.0470314025878906E-3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>7</v>
+      </c>
+      <c r="S2" s="5">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="str">
+        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_14.txt</v>
+      </c>
+      <c r="B3" s="5">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>155</v>
-      </c>
-      <c r="D2">
-        <v>155</v>
-      </c>
-      <c r="E2">
+      <c r="C3" s="5">
+        <v>1905</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1289</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1289</v>
+      </c>
+      <c r="H3" s="5">
+        <v>469</v>
+      </c>
+      <c r="I3" s="5">
+        <v>469</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <v>425</v>
+      </c>
+      <c r="L3" s="5">
+        <v>175</v>
+      </c>
+      <c r="M3" s="5">
+        <v>425</v>
+      </c>
+      <c r="N3" s="5">
+        <v>8.0628395080566406E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1.003265380859375E-3</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.1016368865966797</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7.4251651763916016E-2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>14</v>
+      </c>
+      <c r="S3" s="5">
+        <v>14</v>
+      </c>
+      <c r="T3" s="5">
+        <v>14</v>
+      </c>
+      <c r="U3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_21.txt</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6326</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4432</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4432</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1561</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1561</v>
+      </c>
+      <c r="J4" s="5">
+        <v>77</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1463</v>
+      </c>
+      <c r="L4" s="5">
+        <v>669</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1463</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.33970308303833002</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3.9999485015869141E-3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.50190043449401855</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.43686437606811518</v>
+      </c>
+      <c r="R4" s="5">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5">
+        <v>21</v>
+      </c>
+      <c r="T4" s="5">
+        <v>21</v>
+      </c>
+      <c r="U4" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_28.txt</v>
+      </c>
+      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14889</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10613</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10613</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3682</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3682</v>
+      </c>
+      <c r="J5" s="5">
+        <v>145</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3509</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1400</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3509</v>
+      </c>
+      <c r="N5" s="5">
+        <v>23.922803878784102</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.095890998840332E-2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1.6595757007598879</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1.3627457618713379</v>
+      </c>
+      <c r="R5" s="5">
+        <v>28</v>
+      </c>
+      <c r="S5" s="5">
+        <v>28</v>
+      </c>
+      <c r="T5" s="5">
+        <v>28</v>
+      </c>
+      <c r="U5" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_35.txt</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>28907</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.563715934753418E-2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20861</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20861</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7175</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7175</v>
+      </c>
+      <c r="J6" s="5">
+        <v>293</v>
+      </c>
+      <c r="K6" s="5">
+        <v>6847</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="5">
+        <v>6847</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.9235134124755859E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3.7910809516906738</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>2.8568763732910161</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="5">
+        <v>35</v>
+      </c>
+      <c r="T6" s="5">
+        <v>35</v>
+      </c>
+      <c r="U6" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_42.txt</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5">
+        <v>49900</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <v>36205</v>
+      </c>
+      <c r="G7" s="5">
+        <v>36205</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12383</v>
+      </c>
+      <c r="I7" s="5">
+        <v>12383</v>
+      </c>
+      <c r="J7" s="5">
+        <v>373</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11968</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="5">
+        <v>11968</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3.072452545166016E-2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6.3169553279876709</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5.3100371360778809</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="5">
+        <v>42</v>
+      </c>
+      <c r="T7" s="5">
+        <v>42</v>
+      </c>
+      <c r="U7" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_49.txt</v>
+      </c>
+      <c r="B8" s="5">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5">
+        <v>79066</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.555228233337402E-2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <v>57674</v>
+      </c>
+      <c r="G8" s="5">
+        <v>57674</v>
+      </c>
+      <c r="H8" s="5">
+        <v>19649</v>
+      </c>
+      <c r="I8" s="5">
+        <v>19649</v>
+      </c>
+      <c r="J8" s="5">
+        <v>559</v>
+      </c>
+      <c r="K8" s="5">
+        <v>19041</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="5">
+        <v>19041</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3.8708209991455078E-2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>14.66130304336548</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>11.93607592582703</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="5">
+        <v>49</v>
+      </c>
+      <c r="T8" s="5">
+        <v>49</v>
+      </c>
+      <c r="U8" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_56.txt</v>
+      </c>
+      <c r="B9" s="5">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5">
+        <v>117756</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.5642404556274411E-2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5">
+        <v>86297</v>
+      </c>
+      <c r="G9" s="5">
+        <v>86297</v>
+      </c>
+      <c r="H9" s="5">
+        <v>29316</v>
+      </c>
+      <c r="I9" s="5">
+        <v>29316</v>
+      </c>
+      <c r="J9" s="5">
+        <v>872</v>
+      </c>
+      <c r="K9" s="5">
+        <v>28388</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="5">
+        <v>28388</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6.7197322845458984E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>17.342341423034672</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>16.559338808059689</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="5">
+        <v>56</v>
+      </c>
+      <c r="T9" s="5">
+        <v>56</v>
+      </c>
+      <c r="U9" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_63.txt</v>
+      </c>
+      <c r="B10" s="5">
         <v>63</v>
       </c>
-      <c r="F2">
+      <c r="C10" s="5">
+        <v>167582</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.6793460845947273E-2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <v>123103</v>
+      </c>
+      <c r="G10" s="5">
+        <v>123103</v>
+      </c>
+      <c r="H10" s="5">
+        <v>41727</v>
+      </c>
+      <c r="I10" s="5">
+        <v>41727</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1072</v>
+      </c>
+      <c r="K10" s="5">
+        <v>40592</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="5">
+        <v>40592</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="5">
+        <v>8.9046716690063477E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>34.250863790512078</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>21.03659200668335</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="5">
         <v>63</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>49</v>
-      </c>
-      <c r="K2">
-        <v>1.94549560546875E-3</v>
-      </c>
-      <c r="L2">
-        <v>2.1610260009765621E-3</v>
-      </c>
-      <c r="M2">
-        <v>1.72266960144043E-2</v>
-      </c>
-      <c r="N2">
-        <v>9.0470314025878906E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>1289</v>
-      </c>
-      <c r="D3">
-        <v>1289</v>
-      </c>
-      <c r="E3">
-        <v>469</v>
-      </c>
-      <c r="F3">
-        <v>469</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>425</v>
-      </c>
-      <c r="I3">
-        <v>175</v>
-      </c>
-      <c r="J3">
-        <v>425</v>
-      </c>
-      <c r="K3">
-        <v>8.0628395080566406E-3</v>
-      </c>
-      <c r="L3">
-        <v>1.003265380859375E-3</v>
-      </c>
-      <c r="M3">
-        <v>0.1016368865966797</v>
-      </c>
-      <c r="N3">
-        <v>7.4251651763916016E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>4432</v>
-      </c>
-      <c r="D4">
-        <v>4432</v>
-      </c>
-      <c r="E4">
-        <v>1561</v>
-      </c>
-      <c r="F4">
-        <v>1561</v>
-      </c>
-      <c r="G4">
+      <c r="T10" s="5">
+        <v>63</v>
+      </c>
+      <c r="U10" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_70.txt</v>
+      </c>
+      <c r="B11" s="5">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5">
+        <v>229657</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.12495231628418E-2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5">
+        <v>169121</v>
+      </c>
+      <c r="G11" s="5">
+        <v>169121</v>
+      </c>
+      <c r="H11" s="5">
+        <v>57225</v>
+      </c>
+      <c r="I11" s="5">
+        <v>57225</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1418</v>
+      </c>
+      <c r="K11" s="5">
+        <v>55737</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="5">
+        <v>55737</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.14618134498596189</v>
+      </c>
+      <c r="P11" s="5">
+        <v>47.603183031082153</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>27.43237209320068</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="5">
+        <v>70</v>
+      </c>
+      <c r="T11" s="5">
+        <v>70</v>
+      </c>
+      <c r="U11" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_77.txt</v>
+      </c>
+      <c r="B12" s="5">
         <v>77</v>
       </c>
-      <c r="H4">
-        <v>1463</v>
-      </c>
-      <c r="I4">
-        <v>669</v>
-      </c>
-      <c r="J4">
-        <v>1463</v>
-      </c>
-      <c r="K4">
-        <v>0.33970308303833002</v>
-      </c>
-      <c r="L4">
-        <v>3.9999485015869141E-3</v>
-      </c>
-      <c r="M4">
-        <v>0.50190043449401855</v>
-      </c>
-      <c r="N4">
-        <v>0.43686437606811518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>10613</v>
-      </c>
-      <c r="D5">
-        <v>10613</v>
-      </c>
-      <c r="E5">
-        <v>3682</v>
-      </c>
-      <c r="F5">
-        <v>3682</v>
-      </c>
-      <c r="G5">
-        <v>145</v>
-      </c>
-      <c r="H5">
-        <v>3509</v>
-      </c>
-      <c r="I5">
-        <v>1400</v>
-      </c>
-      <c r="J5">
-        <v>3509</v>
-      </c>
-      <c r="K5">
-        <v>23.922803878784102</v>
-      </c>
-      <c r="L5">
-        <v>1.095890998840332E-2</v>
-      </c>
-      <c r="M5">
-        <v>1.6595757007598879</v>
-      </c>
-      <c r="N5">
-        <v>1.3627457618713379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C12" s="5">
+        <v>305472</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.1094710826873779</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>20861</v>
-      </c>
-      <c r="D6">
-        <v>20861</v>
-      </c>
-      <c r="E6">
-        <v>7175</v>
-      </c>
-      <c r="F6">
-        <v>7175</v>
-      </c>
-      <c r="G6">
-        <v>293</v>
-      </c>
-      <c r="H6">
-        <v>6847</v>
-      </c>
-      <c r="I6">
-        <v>3162</v>
-      </c>
-      <c r="J6">
-        <v>6847</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6">
-        <v>1.9235134124755859E-2</v>
-      </c>
-      <c r="M6">
-        <v>3.7910809516906738</v>
-      </c>
-      <c r="N6">
-        <v>2.8568763732910161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>42</v>
-      </c>
-      <c r="C7">
-        <v>36205</v>
-      </c>
-      <c r="D7">
-        <v>36205</v>
-      </c>
-      <c r="E7">
-        <v>12383</v>
-      </c>
-      <c r="F7">
-        <v>12383</v>
-      </c>
-      <c r="G7">
-        <v>373</v>
-      </c>
-      <c r="H7">
-        <v>11968</v>
-      </c>
-      <c r="I7">
-        <v>5002</v>
-      </c>
-      <c r="J7">
-        <v>11968</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7">
-        <v>3.072452545166016E-2</v>
-      </c>
-      <c r="M7">
-        <v>6.3169553279876709</v>
-      </c>
-      <c r="N7">
-        <v>5.3100371360778809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>57674</v>
-      </c>
-      <c r="D8">
-        <v>57674</v>
-      </c>
-      <c r="E8">
-        <v>19649</v>
-      </c>
-      <c r="F8">
-        <v>19649</v>
-      </c>
-      <c r="G8">
-        <v>559</v>
-      </c>
-      <c r="H8">
-        <v>19041</v>
-      </c>
-      <c r="I8">
-        <v>8122</v>
-      </c>
-      <c r="J8">
-        <v>19041</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8">
-        <v>3.8708209991455078E-2</v>
-      </c>
-      <c r="M8">
-        <v>14.66130304336548</v>
-      </c>
-      <c r="N8">
-        <v>11.93607592582703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>86297</v>
-      </c>
-      <c r="D9">
-        <v>86297</v>
-      </c>
-      <c r="E9">
-        <v>29316</v>
-      </c>
-      <c r="F9">
-        <v>29316</v>
-      </c>
-      <c r="G9">
-        <v>872</v>
-      </c>
-      <c r="H9">
-        <v>28388</v>
-      </c>
-      <c r="I9">
-        <v>12092</v>
-      </c>
-      <c r="J9">
-        <v>28388</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9">
-        <v>6.7197322845458984E-2</v>
-      </c>
-      <c r="M9">
-        <v>17.342341423034672</v>
-      </c>
-      <c r="N9">
-        <v>16.559338808059689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>123103</v>
-      </c>
-      <c r="D10">
-        <v>123103</v>
-      </c>
-      <c r="E10">
-        <v>41727</v>
-      </c>
-      <c r="F10">
-        <v>41727</v>
-      </c>
-      <c r="G10">
-        <v>1072</v>
-      </c>
-      <c r="H10">
-        <v>40592</v>
-      </c>
-      <c r="I10">
-        <v>17165</v>
-      </c>
-      <c r="J10">
-        <v>40592</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10">
-        <v>8.9046716690063477E-2</v>
-      </c>
-      <c r="M10">
-        <v>34.250863790512078</v>
-      </c>
-      <c r="N10">
-        <v>21.03659200668335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>169121</v>
-      </c>
-      <c r="D11">
-        <v>169121</v>
-      </c>
-      <c r="E11">
-        <v>57225</v>
-      </c>
-      <c r="F11">
-        <v>57225</v>
-      </c>
-      <c r="G11">
-        <v>1418</v>
-      </c>
-      <c r="H11">
-        <v>55737</v>
-      </c>
-      <c r="I11">
-        <v>22884</v>
-      </c>
-      <c r="J11">
-        <v>55737</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11">
-        <v>0.14618134498596189</v>
-      </c>
-      <c r="M11">
-        <v>47.603183031082153</v>
-      </c>
-      <c r="N11">
-        <v>27.43237209320068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+      <c r="F12" s="5">
+        <v>225380</v>
+      </c>
+      <c r="G12" s="5">
+        <v>225380</v>
+      </c>
+      <c r="H12" s="5">
+        <v>76153</v>
+      </c>
+      <c r="I12" s="5">
+        <v>76153</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1791</v>
+      </c>
+      <c r="K12" s="5">
+        <v>74285</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="5">
+        <v>74285</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.1979711055755615</v>
+      </c>
+      <c r="P12" s="5">
+        <v>65.654266357421875</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>33.948332071304321</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="5">
         <v>77</v>
       </c>
-      <c r="C12">
-        <v>225380</v>
-      </c>
-      <c r="D12">
-        <v>225380</v>
-      </c>
-      <c r="E12">
-        <v>76153</v>
-      </c>
-      <c r="F12">
-        <v>76153</v>
-      </c>
-      <c r="G12">
-        <v>1791</v>
-      </c>
-      <c r="H12">
-        <v>74285</v>
-      </c>
-      <c r="I12">
-        <v>31259</v>
-      </c>
-      <c r="J12">
-        <v>74285</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12">
-        <v>0.1979711055755615</v>
-      </c>
-      <c r="M12">
-        <v>65.654266357421875</v>
-      </c>
-      <c r="N12">
-        <v>33.948332071304321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
+      <c r="T12" s="5">
+        <v>77</v>
+      </c>
+      <c r="U12" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_84.txt</v>
+      </c>
+      <c r="B13" s="5">
         <v>84</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
+        <v>396301</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.6622734069824219E-2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
         <v>292909</v>
       </c>
-      <c r="D13">
+      <c r="G13" s="5">
         <v>292909</v>
       </c>
-      <c r="E13">
+      <c r="H13" s="5">
         <v>98854</v>
       </c>
-      <c r="F13">
+      <c r="I13" s="5">
         <v>98854</v>
       </c>
-      <c r="G13">
+      <c r="J13" s="5">
         <v>2289</v>
       </c>
-      <c r="H13">
+      <c r="K13" s="5">
         <v>96481</v>
       </c>
-      <c r="I13">
-        <v>40905</v>
-      </c>
-      <c r="J13">
+      <c r="L13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="5">
         <v>96481</v>
       </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13">
+      <c r="N13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.34612751007080078</v>
       </c>
-      <c r="M13">
+      <c r="P13" s="5">
         <v>85.225316047668457</v>
       </c>
-      <c r="N13">
+      <c r="Q13" s="5">
         <v>44.780060768127441</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
+      <c r="R13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="5">
+        <v>84</v>
+      </c>
+      <c r="T13" s="5">
+        <v>84</v>
+      </c>
+      <c r="U13" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_91.txt</v>
+      </c>
+      <c r="B14" s="5">
         <v>91</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
+        <v>503408</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.10425567626953119</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5">
         <v>372737</v>
       </c>
-      <c r="D14">
+      <c r="G14" s="5">
         <v>372737</v>
       </c>
-      <c r="E14">
+      <c r="H14" s="5">
         <v>125671</v>
       </c>
-      <c r="F14">
+      <c r="I14" s="5">
         <v>125671</v>
       </c>
-      <c r="G14">
+      <c r="J14" s="5">
         <v>3020</v>
       </c>
-      <c r="H14">
+      <c r="K14" s="5">
         <v>122560</v>
       </c>
-      <c r="I14">
-        <v>52142</v>
-      </c>
-      <c r="J14">
+      <c r="L14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="5">
         <v>122560</v>
       </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14">
+      <c r="N14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.31664204597473139</v>
       </c>
-      <c r="M14">
+      <c r="P14" s="5">
         <v>119.6599636077881</v>
       </c>
-      <c r="N14">
+      <c r="Q14" s="5">
         <v>56.414396286010742</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
+      <c r="R14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="5">
+        <v>91</v>
+      </c>
+      <c r="T14" s="5">
+        <v>91</v>
+      </c>
+      <c r="U14" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_98.txt</v>
+      </c>
+      <c r="B15" s="5">
         <v>98</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
+        <v>628519</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.12416815757751461</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5">
         <v>465893</v>
       </c>
-      <c r="D15">
+      <c r="G15" s="5">
         <v>465893</v>
       </c>
-      <c r="E15">
+      <c r="H15" s="5">
         <v>156947</v>
       </c>
-      <c r="F15">
+      <c r="I15" s="5">
         <v>156947</v>
       </c>
-      <c r="G15">
+      <c r="J15" s="5">
         <v>3630</v>
       </c>
-      <c r="H15">
+      <c r="K15" s="5">
         <v>153219</v>
       </c>
-      <c r="I15">
-        <v>66247</v>
-      </c>
-      <c r="J15">
+      <c r="L15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="5">
         <v>153219</v>
       </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15">
+      <c r="N15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="5">
         <v>0.3383631706237793</v>
       </c>
-      <c r="M15">
+      <c r="P15" s="5">
         <v>160.7150967121124</v>
       </c>
-      <c r="N15">
+      <c r="Q15" s="5">
         <v>69.904790639877319</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
+      <c r="R15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" s="5">
+        <v>98</v>
+      </c>
+      <c r="T15" s="5">
+        <v>98</v>
+      </c>
+      <c r="U15" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_105.txt</v>
+      </c>
+      <c r="B16" s="5">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
+        <v>772695</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.12966156005859381</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5">
         <v>573406</v>
       </c>
-      <c r="D16">
+      <c r="G16" s="5">
         <v>573406</v>
       </c>
-      <c r="E16">
+      <c r="H16" s="5">
         <v>193025</v>
       </c>
-      <c r="F16">
+      <c r="I16" s="5">
         <v>193025</v>
       </c>
-      <c r="G16">
+      <c r="J16" s="5">
         <v>4430</v>
       </c>
-      <c r="H16">
+      <c r="K16" s="5">
         <v>188490</v>
       </c>
-      <c r="I16">
-        <v>81006</v>
-      </c>
-      <c r="J16">
+      <c r="L16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="5">
         <v>188490</v>
       </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16">
+      <c r="N16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="5">
         <v>0.59724235534667969</v>
       </c>
-      <c r="M16">
+      <c r="P16" s="5">
         <v>138.1100797653198</v>
       </c>
-      <c r="N16">
+      <c r="Q16" s="5">
         <v>93.544160127639771</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
+      <c r="R16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="5">
+        <v>105</v>
+      </c>
+      <c r="T16" s="5">
+        <v>105</v>
+      </c>
+      <c r="U16" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_112.txt</v>
+      </c>
+      <c r="B17" s="5">
         <v>112</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
+        <v>937106</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.2453770637512207</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5">
         <v>696305</v>
       </c>
-      <c r="D17">
+      <c r="G17" s="5">
         <v>696305</v>
       </c>
-      <c r="E17">
+      <c r="H17" s="5">
         <v>234248</v>
       </c>
-      <c r="F17">
+      <c r="I17" s="5">
         <v>234248</v>
       </c>
-      <c r="G17">
+      <c r="J17" s="5">
         <v>5622</v>
       </c>
-      <c r="H17">
+      <c r="K17" s="5">
         <v>228514</v>
       </c>
-      <c r="I17">
-        <v>100886</v>
-      </c>
-      <c r="J17">
+      <c r="L17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="5">
         <v>228514</v>
       </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17">
+      <c r="N17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="5">
         <v>0.52377843856811523</v>
       </c>
-      <c r="M17">
+      <c r="P17" s="5">
         <v>257.56480264663702</v>
       </c>
-      <c r="N17">
+      <c r="Q17" s="5">
         <v>122.326681137085</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
+      <c r="R17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="5">
+        <v>112</v>
+      </c>
+      <c r="T17" s="5">
+        <v>112</v>
+      </c>
+      <c r="U17" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_119.txt</v>
+      </c>
+      <c r="B18" s="5">
         <v>119</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
+        <v>1124624</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.41666054725646973</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5">
         <v>835619</v>
       </c>
-      <c r="D18">
+      <c r="G18" s="5">
         <v>835619</v>
       </c>
-      <c r="E18">
+      <c r="H18" s="5">
         <v>280959</v>
       </c>
-      <c r="F18">
+      <c r="I18" s="5">
         <v>280959</v>
       </c>
-      <c r="G18">
+      <c r="J18" s="5">
         <v>5706</v>
       </c>
-      <c r="H18">
+      <c r="K18" s="5">
         <v>275134</v>
       </c>
-      <c r="I18">
-        <v>115685</v>
-      </c>
-      <c r="J18">
+      <c r="L18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="5">
         <v>275134</v>
       </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18">
+      <c r="N18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="5">
         <v>1.0308103561401369</v>
       </c>
-      <c r="M18">
+      <c r="P18" s="5">
         <v>418.03095030784613</v>
       </c>
-      <c r="N18">
+      <c r="Q18" s="5">
         <v>65.597180366516113</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
+      <c r="R18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="5">
+        <v>119</v>
+      </c>
+      <c r="T18" s="5">
+        <v>119</v>
+      </c>
+      <c r="U18" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_126.txt</v>
+      </c>
+      <c r="B19" s="5">
         <v>126</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
+        <v>1334210</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.26571774482727051</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="5">
         <v>992377</v>
       </c>
-      <c r="D19">
+      <c r="G19" s="5">
         <v>992377</v>
       </c>
-      <c r="E19">
+      <c r="H19" s="5">
         <v>333501</v>
       </c>
-      <c r="F19">
+      <c r="I19" s="5">
         <v>333501</v>
       </c>
-      <c r="G19">
+      <c r="J19" s="5">
         <v>7093</v>
       </c>
-      <c r="H19">
+      <c r="K19" s="5">
         <v>326282</v>
       </c>
-      <c r="I19">
-        <v>137934</v>
-      </c>
-      <c r="J19">
+      <c r="L19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="5">
         <v>326282</v>
       </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19">
+      <c r="N19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="5">
         <v>1.1281857490539551</v>
       </c>
-      <c r="M19">
+      <c r="P19" s="5">
         <v>308.66505146026611</v>
       </c>
-      <c r="N19">
+      <c r="Q19" s="5">
         <v>207.67683935165411</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L20">
-        <f>SUM(L2:L19)</f>
-        <v>4.8883371353149414</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20:N20" si="0">SUM(M2:M19)</f>
-        <v>1679.8715941905975</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>781.20664191246033</v>
-      </c>
-      <c r="O20">
-        <f>SUM(L20:N20)</f>
-        <v>2465.9665732383728</v>
+      <c r="R19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="5">
+        <v>126</v>
+      </c>
+      <c r="T19" s="5">
+        <v>126</v>
+      </c>
+      <c r="U19" s="5">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q8">
     <sortCondition ref="B2:B8"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1384,16 +1858,1269 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521FF04-3FBD-4AF9-8B6C-69EC3780CA0C}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22BC2E9-CE8A-42B6-A72D-7B1F3640A090}">
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>256</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3">
+        <v>155</v>
+      </c>
+      <c r="G2" s="3">
+        <v>155</v>
+      </c>
+      <c r="H2" s="3">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.5052556991577151E-3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.488196849822998E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1.3070821762084959E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1915</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1289</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1289</v>
+      </c>
+      <c r="H3" s="3">
+        <v>469</v>
+      </c>
+      <c r="I3" s="3">
+        <v>469</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>435</v>
+      </c>
+      <c r="L3" s="3">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3">
+        <v>435</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.4746866226196289E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.3007402420043951E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>7.7714800834655762E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>6.1780929565429688E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>11</v>
+      </c>
+      <c r="S3" s="3">
+        <v>11</v>
+      </c>
+      <c r="T3" s="3">
+        <v>11</v>
+      </c>
+      <c r="U3" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6357</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4432</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4432</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1561</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1561</v>
+      </c>
+      <c r="J4" s="3">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1494</v>
+      </c>
+      <c r="L4" s="3">
+        <v>334</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1494</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.9506454467773441E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.2499322891235352E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.3087012767791748</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.34765827655792242</v>
+      </c>
+      <c r="R4" s="3">
+        <v>18</v>
+      </c>
+      <c r="S4" s="3">
+        <v>18</v>
+      </c>
+      <c r="T4" s="3">
+        <v>18</v>
+      </c>
+      <c r="U4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14709</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.498222351074219E-3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10613</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10613</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3682</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3682</v>
+      </c>
+      <c r="J5" s="3">
+        <v>325</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3329</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1368</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3329</v>
+      </c>
+      <c r="N5" s="3">
+        <v>234.45823454856799</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8.6791515350341797E-3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.6644241809844971</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1.462462425231934</v>
+      </c>
+      <c r="R5" s="3">
+        <v>28</v>
+      </c>
+      <c r="S5" s="3">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3">
+        <v>28</v>
+      </c>
+      <c r="U5" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28752</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20861</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20861</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7175</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7175</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6692</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1996</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6692</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3.4015417098999023E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4.1216448545455933</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>4.0258139371871948</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="3">
+        <v>33</v>
+      </c>
+      <c r="T6" s="3">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3">
+        <v>49725</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>36205</v>
+      </c>
+      <c r="G7" s="3">
+        <v>36205</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12383</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12383</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3">
+        <v>11793</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3710</v>
+      </c>
+      <c r="M7" s="3">
+        <v>11793</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5.1171660423278809E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>7.5070985555648804</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>6.8840094804763794</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="3">
+        <v>40</v>
+      </c>
+      <c r="T7" s="3">
+        <v>40</v>
+      </c>
+      <c r="U7" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>78403</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.3464560508728031E-2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>57674</v>
+      </c>
+      <c r="G8" s="3">
+        <v>57674</v>
+      </c>
+      <c r="H8" s="3">
+        <v>19649</v>
+      </c>
+      <c r="I8" s="3">
+        <v>19649</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3">
+        <v>18378</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6227</v>
+      </c>
+      <c r="M8" s="3">
+        <v>18378</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.6876072883605957E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>14.146625757217411</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>11.50104904174805</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="3">
+        <v>49</v>
+      </c>
+      <c r="T8" s="3">
+        <v>49</v>
+      </c>
+      <c r="U8" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>117083</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>86297</v>
+      </c>
+      <c r="G9" s="3">
+        <v>86297</v>
+      </c>
+      <c r="H9" s="3">
+        <v>29316</v>
+      </c>
+      <c r="I9" s="3">
+        <v>29316</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3">
+        <v>27715</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9314</v>
+      </c>
+      <c r="M9" s="3">
+        <v>27715</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.14332437515258789</v>
+      </c>
+      <c r="P9" s="3">
+        <v>27.616925001144409</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>18.073684811592098</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="3">
+        <v>53</v>
+      </c>
+      <c r="T9" s="3">
+        <v>53</v>
+      </c>
+      <c r="U9" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3">
+        <v>166179</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>123103</v>
+      </c>
+      <c r="G10" s="3">
+        <v>123103</v>
+      </c>
+      <c r="H10" s="3">
+        <v>41727</v>
+      </c>
+      <c r="I10" s="3">
+        <v>41727</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3">
+        <v>39189</v>
+      </c>
+      <c r="L10" s="3">
+        <v>14319</v>
+      </c>
+      <c r="M10" s="3">
+        <v>39189</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.19106400012969971</v>
+      </c>
+      <c r="P10" s="3">
+        <v>40.914362549781799</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>21.53079271316528</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="3">
+        <v>61</v>
+      </c>
+      <c r="T10" s="3">
+        <v>61</v>
+      </c>
+      <c r="U10" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3">
+        <v>229211</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>169121</v>
+      </c>
+      <c r="G11" s="3">
+        <v>169121</v>
+      </c>
+      <c r="H11" s="3">
+        <v>57225</v>
+      </c>
+      <c r="I11" s="3">
+        <v>57225</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3">
+        <v>55291</v>
+      </c>
+      <c r="L11" s="3">
+        <v>14720</v>
+      </c>
+      <c r="M11" s="3">
+        <v>55291</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.2484583854675293</v>
+      </c>
+      <c r="P11" s="3">
+        <v>52.19750189781189</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>36.937777280807502</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="3">
+        <v>68</v>
+      </c>
+      <c r="T11" s="3">
+        <v>68</v>
+      </c>
+      <c r="U11" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3">
+        <v>302805</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.5025348663330078E-2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>225380</v>
+      </c>
+      <c r="G12" s="3">
+        <v>225380</v>
+      </c>
+      <c r="H12" s="3">
+        <v>76153</v>
+      </c>
+      <c r="I12" s="3">
+        <v>76153</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="3">
+        <v>71618</v>
+      </c>
+      <c r="L12" s="3">
+        <v>28967</v>
+      </c>
+      <c r="M12" s="3">
+        <v>71618</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.31452488899230963</v>
+      </c>
+      <c r="P12" s="3">
+        <v>63.939985990524292</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>39.931895017623901</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="3">
+        <v>77</v>
+      </c>
+      <c r="T12" s="3">
+        <v>77</v>
+      </c>
+      <c r="U12" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3">
+        <v>392566</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.6649665832519531E-2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3">
+        <v>292909</v>
+      </c>
+      <c r="G13" s="3">
+        <v>292909</v>
+      </c>
+      <c r="H13" s="3">
+        <v>98854</v>
+      </c>
+      <c r="I13" s="3">
+        <v>98854</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="3">
+        <v>92746</v>
+      </c>
+      <c r="L13" s="3">
+        <v>34954</v>
+      </c>
+      <c r="M13" s="3">
+        <v>92746</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.30891728401184082</v>
+      </c>
+      <c r="P13" s="3">
+        <v>89.242394924163818</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>52.385973215103149</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="3">
+        <v>84</v>
+      </c>
+      <c r="T13" s="3">
+        <v>84</v>
+      </c>
+      <c r="U13" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3">
+        <v>499551</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.176422119140625E-2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>372737</v>
+      </c>
+      <c r="G14" s="3">
+        <v>372737</v>
+      </c>
+      <c r="H14" s="3">
+        <v>125671</v>
+      </c>
+      <c r="I14" s="3">
+        <v>125671</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3">
+        <v>118703</v>
+      </c>
+      <c r="L14" s="3">
+        <v>39784</v>
+      </c>
+      <c r="M14" s="3">
+        <v>118703</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.35452866554260248</v>
+      </c>
+      <c r="P14" s="3">
+        <v>142.82056140899661</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>65.58626651763916</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="3">
+        <v>91</v>
+      </c>
+      <c r="T14" s="3">
+        <v>91</v>
+      </c>
+      <c r="U14" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3">
+        <v>625063</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3">
+        <v>465893</v>
+      </c>
+      <c r="G15" s="3">
+        <v>465893</v>
+      </c>
+      <c r="H15" s="3">
+        <v>156947</v>
+      </c>
+      <c r="I15" s="3">
+        <v>156947</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="3">
+        <v>149763</v>
+      </c>
+      <c r="L15" s="3">
+        <v>48831</v>
+      </c>
+      <c r="M15" s="3">
+        <v>149763</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.82262802124023438</v>
+      </c>
+      <c r="P15" s="3">
+        <v>150.74501395225519</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>98.79905104637146</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" s="3">
+        <v>96</v>
+      </c>
+      <c r="T15" s="3">
+        <v>96</v>
+      </c>
+      <c r="U15" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3">
+        <v>765811</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1391708850860596</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <v>573406</v>
+      </c>
+      <c r="G16" s="3">
+        <v>573406</v>
+      </c>
+      <c r="H16" s="3">
+        <v>193025</v>
+      </c>
+      <c r="I16" s="3">
+        <v>193025</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="3">
+        <v>181606</v>
+      </c>
+      <c r="L16" s="3">
+        <v>68078</v>
+      </c>
+      <c r="M16" s="3">
+        <v>181606</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.0386486053466799</v>
+      </c>
+      <c r="P16" s="3">
+        <v>256.26329517364502</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>113.6600062847137</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="3">
+        <v>105</v>
+      </c>
+      <c r="T16" s="3">
+        <v>105</v>
+      </c>
+      <c r="U16" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>112</v>
+      </c>
+      <c r="C17" s="3">
+        <v>931722</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3">
+        <v>696305</v>
+      </c>
+      <c r="G17" s="3">
+        <v>696305</v>
+      </c>
+      <c r="H17" s="3">
+        <v>234248</v>
+      </c>
+      <c r="I17" s="3">
+        <v>234248</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="3">
+        <v>223130</v>
+      </c>
+      <c r="L17" s="3">
+        <v>64427</v>
+      </c>
+      <c r="M17" s="3">
+        <v>223130</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.3778283596038821</v>
+      </c>
+      <c r="P17" s="3">
+        <v>581.14130473136902</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>128.30421304702759</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="3">
+        <v>110</v>
+      </c>
+      <c r="T17" s="3">
+        <v>110</v>
+      </c>
+      <c r="U17" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1118226</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3">
+        <v>835619</v>
+      </c>
+      <c r="G18" s="3">
+        <v>835619</v>
+      </c>
+      <c r="H18" s="3">
+        <v>280959</v>
+      </c>
+      <c r="I18" s="3">
+        <v>280959</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="3">
+        <v>268736</v>
+      </c>
+      <c r="L18" s="3">
+        <v>95202</v>
+      </c>
+      <c r="M18" s="3">
+        <v>268736</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.88483047485351563</v>
+      </c>
+      <c r="P18" s="3">
+        <v>119.1600968837738</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>159.76762342453</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="3">
+        <v>117</v>
+      </c>
+      <c r="T18" s="3">
+        <v>117</v>
+      </c>
+      <c r="U18" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>126</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1326251</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.49610137939453119</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>992377</v>
+      </c>
+      <c r="G19" s="3">
+        <v>992377</v>
+      </c>
+      <c r="H19" s="3">
+        <v>333501</v>
+      </c>
+      <c r="I19" s="3">
+        <v>333501</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="3">
+        <v>318323</v>
+      </c>
+      <c r="L19" s="3">
+        <v>103638</v>
+      </c>
+      <c r="M19" s="3">
+        <v>318323</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.89656352996826172</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1081.968217849731</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>107.38566255569459</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="3">
+        <v>126</v>
+      </c>
+      <c r="T19" s="3">
+        <v>126</v>
+      </c>
+      <c r="U19" s="3">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521FF04-3FBD-4AF9-8B6C-69EC3780CA0C}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -1404,8 +3131,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1430,8 +3157,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2" t="str">
+        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_7.txt</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1456,8 +3184,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_14.txt</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -1482,8 +3211,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_21.txt</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -1508,8 +3238,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_28.txt</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -1534,8 +3265,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_35.txt</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -1553,15 +3285,16 @@
         <v>6847</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1.9235134124755859E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_42.txt</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -1579,15 +3312,16 @@
         <v>11968</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>3.072452545166016E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_49.txt</v>
       </c>
       <c r="B8">
         <v>49</v>
@@ -1605,15 +3339,16 @@
         <v>19041</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>3.8708209991455078E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_56.txt</v>
       </c>
       <c r="B9">
         <v>56</v>
@@ -1631,15 +3366,16 @@
         <v>28388</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>6.7197322845458984E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_63.txt</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -1657,15 +3393,16 @@
         <v>40592</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>8.9046716690063477E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_70.txt</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -1683,15 +3420,16 @@
         <v>55737</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>0.14618134498596189</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_77.txt</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -1709,15 +3447,16 @@
         <v>74285</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>0.1979711055755615</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_84.txt</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -1735,15 +3474,16 @@
         <v>96481</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>0.34612751007080078</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_91.txt</v>
       </c>
       <c r="B14">
         <v>91</v>
@@ -1761,15 +3501,16 @@
         <v>122560</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>0.31664204597473139</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_98.txt</v>
       </c>
       <c r="B15">
         <v>98</v>
@@ -1787,15 +3528,16 @@
         <v>153219</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>0.3383631706237793</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_105.txt</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -1813,15 +3555,16 @@
         <v>188490</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>0.59724235534667969</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_112.txt</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -1839,15 +3582,16 @@
         <v>228514</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>0.52377843856811523</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_119.txt</v>
       </c>
       <c r="B18">
         <v>119</v>
@@ -1865,15 +3609,16 @@
         <v>275134</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1.0308103561401369</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_126.txt</v>
       </c>
       <c r="B19">
         <v>126</v>
@@ -1891,7 +3636,7 @@
         <v>326282</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1.1281857490539551</v>
@@ -1903,17 +3648,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71875E24-4FCB-4927-AA79-509C31900EAF}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -1924,8 +3669,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1950,8 +3695,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2" t="str">
+        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_7.txt</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1976,8 +3722,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
+        <v>fully_num_14.txt</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -2002,8 +3749,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_21.txt</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -2028,8 +3776,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_28.txt</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -2054,8 +3803,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_35.txt</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -2080,8 +3830,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_42.txt</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -2106,8 +3857,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_49.txt</v>
       </c>
       <c r="B8">
         <v>49</v>
@@ -2132,8 +3884,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_56.txt</v>
       </c>
       <c r="B9">
         <v>56</v>
@@ -2158,8 +3911,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_63.txt</v>
       </c>
       <c r="B10">
         <v>63</v>
@@ -2184,8 +3938,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_70.txt</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -2210,8 +3965,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_77.txt</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -2236,8 +3992,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_84.txt</v>
       </c>
       <c r="B13">
         <v>84</v>
@@ -2262,8 +4019,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_91.txt</v>
       </c>
       <c r="B14">
         <v>91</v>
@@ -2288,8 +4046,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_98.txt</v>
       </c>
       <c r="B15">
         <v>98</v>
@@ -2314,8 +4073,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_105.txt</v>
       </c>
       <c r="B16">
         <v>105</v>
@@ -2340,8 +4100,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_112.txt</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -2366,8 +4127,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_119.txt</v>
       </c>
       <c r="B18">
         <v>119</v>
@@ -2392,8 +4154,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>fully_num_126.txt</v>
       </c>
       <c r="B19">
         <v>126</v>

--- a/results_final.xlsx
+++ b/results_final.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University_materials\KLTN\SolvingTCPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72638E-99AD-4E97-B6E7-472DA244982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D016122-F020-44B6-B2C8-78D084177722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fully_results" sheetId="1" r:id="rId1"/>
     <sheet name="rc2_fully" sheetId="5" r:id="rId2"/>
-    <sheet name="rc2_max" sheetId="6" r:id="rId3"/>
-    <sheet name="cpsat_fully" sheetId="7" r:id="rId4"/>
-    <sheet name="cpsat_max" sheetId="8" r:id="rId5"/>
-    <sheet name="fully_compare" sheetId="9" r:id="rId6"/>
-    <sheet name="max_compare" sheetId="10" r:id="rId7"/>
-    <sheet name="max_results" sheetId="4" r:id="rId8"/>
+    <sheet name="cpsat_fully" sheetId="7" r:id="rId3"/>
+    <sheet name="fully_compare" sheetId="9" r:id="rId4"/>
+    <sheet name="max_results" sheetId="4" r:id="rId5"/>
+    <sheet name="rc2_max" sheetId="6" r:id="rId6"/>
+    <sheet name="cpsat_max" sheetId="8" r:id="rId7"/>
+    <sheet name="max_compare" sheetId="10" r:id="rId8"/>
     <sheet name="rc2" sheetId="2" r:id="rId9"/>
     <sheet name="cp-sat" sheetId="3" r:id="rId10"/>
   </sheets>
@@ -98,61 +98,7 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>max_num_7.txt</t>
-  </si>
-  <si>
     <t>UNSAT</t>
-  </si>
-  <si>
-    <t>max_num_14.txt</t>
-  </si>
-  <si>
-    <t>max_num_21.txt</t>
-  </si>
-  <si>
-    <t>max_num_28.txt</t>
-  </si>
-  <si>
-    <t>max_num_35.txt</t>
-  </si>
-  <si>
-    <t>max_num_42.txt</t>
-  </si>
-  <si>
-    <t>max_num_49.txt</t>
-  </si>
-  <si>
-    <t>max_num_56.txt</t>
-  </si>
-  <si>
-    <t>max_num_63.txt</t>
-  </si>
-  <si>
-    <t>max_num_70.txt</t>
-  </si>
-  <si>
-    <t>max_num_77.txt</t>
-  </si>
-  <si>
-    <t>max_num_84.txt</t>
-  </si>
-  <si>
-    <t>max_num_91.txt</t>
-  </si>
-  <si>
-    <t>max_num_98.txt</t>
-  </si>
-  <si>
-    <t>max_num_105.txt</t>
-  </si>
-  <si>
-    <t>max_num_112.txt</t>
-  </si>
-  <si>
-    <t>max_num_119.txt</t>
-  </si>
-  <si>
-    <t>max_num_126.txt</t>
   </si>
   <si>
     <t>Timeout</t>
@@ -186,6 +132,60 @@
   </si>
   <si>
     <t>soft_max</t>
+  </si>
+  <si>
+    <t>max_7.txt</t>
+  </si>
+  <si>
+    <t>max_14.txt</t>
+  </si>
+  <si>
+    <t>max_21.txt</t>
+  </si>
+  <si>
+    <t>max_28.txt</t>
+  </si>
+  <si>
+    <t>max_35.txt</t>
+  </si>
+  <si>
+    <t>max_42.txt</t>
+  </si>
+  <si>
+    <t>max_49.txt</t>
+  </si>
+  <si>
+    <t>max_56.txt</t>
+  </si>
+  <si>
+    <t>max_63.txt</t>
+  </si>
+  <si>
+    <t>max_70.txt</t>
+  </si>
+  <si>
+    <t>max_77.txt</t>
+  </si>
+  <si>
+    <t>max_84.txt</t>
+  </si>
+  <si>
+    <t>max_91.txt</t>
+  </si>
+  <si>
+    <t>max_98.txt</t>
+  </si>
+  <si>
+    <t>max_105.txt</t>
+  </si>
+  <si>
+    <t>max_112.txt</t>
+  </si>
+  <si>
+    <t>max_119.txt</t>
+  </si>
+  <si>
+    <t>max_126.txt</t>
   </si>
 </sst>
 </file>
@@ -600,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -627,25 +627,25 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_7.txt</v>
+        <f t="shared" ref="A2:A19" si="0">CONCATENATE("fully_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_7.txt</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -698,8 +698,8 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_14.txt</v>
+        <f t="shared" si="0"/>
+        <v>fully_14.txt</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -753,7 +753,7 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_21.txt</v>
+        <v>fully_21.txt</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -807,7 +807,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_28.txt</v>
+        <v>fully_28.txt</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
@@ -861,7 +861,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_35.txt</v>
+        <v>fully_35.txt</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -885,7 +885,7 @@
         <v>1.563715934753418E-2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2">
         <v>1.9235134124755859E-2</v>
@@ -900,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2">
         <v>35</v>
@@ -915,7 +915,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_42.txt</v>
+        <v>fully_42.txt</v>
       </c>
       <c r="B7" s="2">
         <v>42</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2">
         <v>3.072452545166016E-2</v>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2">
         <v>42</v>
@@ -969,7 +969,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_49.txt</v>
+        <v>fully_49.txt</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -993,7 +993,7 @@
         <v>1.555228233337402E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2">
         <v>3.8708209991455078E-2</v>
@@ -1008,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2">
         <v>49</v>
@@ -1023,7 +1023,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_56.txt</v>
+        <v>fully_56.txt</v>
       </c>
       <c r="B9" s="2">
         <v>56</v>
@@ -1047,7 +1047,7 @@
         <v>1.5642404556274411E-2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
         <v>6.7197322845458984E-2</v>
@@ -1062,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2">
         <v>56</v>
@@ -1077,7 +1077,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_63.txt</v>
+        <v>fully_63.txt</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
@@ -1101,7 +1101,7 @@
         <v>4.6793460845947273E-2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2">
         <v>8.9046716690063477E-2</v>
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2">
         <v>63</v>
@@ -1131,7 +1131,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_70.txt</v>
+        <v>fully_70.txt</v>
       </c>
       <c r="B11" s="2">
         <v>70</v>
@@ -1155,7 +1155,7 @@
         <v>3.12495231628418E-2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2">
         <v>0.14618134498596189</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2">
         <v>70</v>
@@ -1185,7 +1185,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_77.txt</v>
+        <v>fully_77.txt</v>
       </c>
       <c r="B12" s="2">
         <v>77</v>
@@ -1209,7 +1209,7 @@
         <v>0.1094710826873779</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2">
         <v>0.1979711055755615</v>
@@ -1224,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2">
         <v>77</v>
@@ -1239,7 +1239,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_84.txt</v>
+        <v>fully_84.txt</v>
       </c>
       <c r="B13" s="2">
         <v>84</v>
@@ -1263,7 +1263,7 @@
         <v>6.6622734069824219E-2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2">
         <v>0.34612751007080078</v>
@@ -1278,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2">
         <v>84</v>
@@ -1293,7 +1293,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_91.txt</v>
+        <v>fully_91.txt</v>
       </c>
       <c r="B14" s="2">
         <v>91</v>
@@ -1317,7 +1317,7 @@
         <v>0.10425567626953119</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2">
         <v>0.31664204597473139</v>
@@ -1332,7 +1332,7 @@
         <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2">
         <v>91</v>
@@ -1347,7 +1347,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_98.txt</v>
+        <v>fully_98.txt</v>
       </c>
       <c r="B15" s="2">
         <v>98</v>
@@ -1371,7 +1371,7 @@
         <v>0.12416815757751461</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2">
         <v>0.3383631706237793</v>
@@ -1386,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2">
         <v>98</v>
@@ -1401,7 +1401,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_105.txt</v>
+        <v>fully_105.txt</v>
       </c>
       <c r="B16" s="2">
         <v>105</v>
@@ -1425,7 +1425,7 @@
         <v>0.12966156005859381</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2">
         <v>0.59724235534667969</v>
@@ -1440,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O16" s="2">
         <v>105</v>
@@ -1455,7 +1455,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_112.txt</v>
+        <v>fully_112.txt</v>
       </c>
       <c r="B17" s="2">
         <v>112</v>
@@ -1479,7 +1479,7 @@
         <v>0.2453770637512207</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2">
         <v>0.52377843856811523</v>
@@ -1494,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O17" s="2">
         <v>112</v>
@@ -1509,7 +1509,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_119.txt</v>
+        <v>fully_119.txt</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -1533,7 +1533,7 @@
         <v>0.41666054725646973</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2">
         <v>1.0308103561401369</v>
@@ -1548,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2">
         <v>119</v>
@@ -1563,7 +1563,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_126.txt</v>
+        <v>fully_126.txt</v>
       </c>
       <c r="B19" s="2">
         <v>126</v>
@@ -1587,7 +1587,7 @@
         <v>0.26571774482727051</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2">
         <v>1.1281857490539551</v>
@@ -1602,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O19" s="2">
         <v>126</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -2207,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_7.txt</v>
+        <f t="shared" ref="A2:A19" si="0">CONCATENATE("fully_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_7.txt</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -2251,8 +2251,8 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_14.txt</v>
+        <f t="shared" si="0"/>
+        <v>fully_14.txt</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -2288,7 +2288,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_21.txt</v>
+        <v>fully_21.txt</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -2324,7 +2324,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_28.txt</v>
+        <v>fully_28.txt</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
@@ -2360,7 +2360,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_35.txt</v>
+        <v>fully_35.txt</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -2381,13 +2381,13 @@
         <v>1.563715934753418E-2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
         <v>1.9235134124755859E-2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2">
         <v>35</v>
@@ -2396,7 +2396,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_42.txt</v>
+        <v>fully_42.txt</v>
       </c>
       <c r="B7" s="2">
         <v>42</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
         <v>3.072452545166016E-2</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
         <v>42</v>
@@ -2432,7 +2432,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_49.txt</v>
+        <v>fully_49.txt</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -2453,13 +2453,13 @@
         <v>1.555228233337402E-2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2">
         <v>3.8708209991455078E-2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2">
         <v>49</v>
@@ -2468,7 +2468,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_56.txt</v>
+        <v>fully_56.txt</v>
       </c>
       <c r="B9" s="2">
         <v>56</v>
@@ -2489,13 +2489,13 @@
         <v>1.5642404556274411E-2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
         <v>6.7197322845458984E-2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
         <v>56</v>
@@ -2504,7 +2504,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_63.txt</v>
+        <v>fully_63.txt</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
@@ -2525,13 +2525,13 @@
         <v>4.6793460845947273E-2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2">
         <v>8.9046716690063477E-2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2">
         <v>63</v>
@@ -2540,7 +2540,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_70.txt</v>
+        <v>fully_70.txt</v>
       </c>
       <c r="B11" s="2">
         <v>70</v>
@@ -2561,13 +2561,13 @@
         <v>3.12495231628418E-2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2">
         <v>0.14618134498596189</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
         <v>70</v>
@@ -2576,7 +2576,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_77.txt</v>
+        <v>fully_77.txt</v>
       </c>
       <c r="B12" s="2">
         <v>77</v>
@@ -2597,13 +2597,13 @@
         <v>0.1094710826873779</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2">
         <v>0.1979711055755615</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
         <v>77</v>
@@ -2612,7 +2612,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_84.txt</v>
+        <v>fully_84.txt</v>
       </c>
       <c r="B13" s="2">
         <v>84</v>
@@ -2633,13 +2633,13 @@
         <v>6.6622734069824219E-2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2">
         <v>0.34612751007080078</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
         <v>84</v>
@@ -2648,7 +2648,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_91.txt</v>
+        <v>fully_91.txt</v>
       </c>
       <c r="B14" s="2">
         <v>91</v>
@@ -2669,13 +2669,13 @@
         <v>0.10425567626953119</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I14" s="2">
         <v>0.31664204597473139</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
         <v>91</v>
@@ -2684,7 +2684,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_98.txt</v>
+        <v>fully_98.txt</v>
       </c>
       <c r="B15" s="2">
         <v>98</v>
@@ -2705,13 +2705,13 @@
         <v>0.12416815757751461</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2">
         <v>0.3383631706237793</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2">
         <v>98</v>
@@ -2720,7 +2720,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_105.txt</v>
+        <v>fully_105.txt</v>
       </c>
       <c r="B16" s="2">
         <v>105</v>
@@ -2741,13 +2741,13 @@
         <v>0.12966156005859381</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I16" s="2">
         <v>0.59724235534667969</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
         <v>105</v>
@@ -2756,7 +2756,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_112.txt</v>
+        <v>fully_112.txt</v>
       </c>
       <c r="B17" s="2">
         <v>112</v>
@@ -2777,13 +2777,13 @@
         <v>0.2453770637512207</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2">
         <v>0.52377843856811523</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2">
         <v>112</v>
@@ -2792,7 +2792,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_119.txt</v>
+        <v>fully_119.txt</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -2813,13 +2813,13 @@
         <v>0.41666054725646973</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I18" s="2">
         <v>1.0308103561401369</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2">
         <v>119</v>
@@ -2828,7 +2828,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_126.txt</v>
+        <v>fully_126.txt</v>
       </c>
       <c r="B19" s="2">
         <v>126</v>
@@ -2849,13 +2849,13 @@
         <v>0.26571774482727051</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I19" s="2">
         <v>1.1281857490539551</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
         <v>126</v>
@@ -2867,704 +2867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D2418-A170-404D-AFE7-0A23660157D4}">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>256</v>
-      </c>
-      <c r="D2" s="2">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2">
-        <v>63</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.5052556991577151E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1915</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1289</v>
-      </c>
-      <c r="E3" s="2">
-        <v>469</v>
-      </c>
-      <c r="F3" s="2">
-        <v>89</v>
-      </c>
-      <c r="G3" s="2">
-        <v>435</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.4746866226196289E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.3007402420043951E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6357</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4432</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1561</v>
-      </c>
-      <c r="F4" s="2">
-        <v>334</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1494</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.9506454467773441E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.2499322891235352E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14709</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10613</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3682</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1368</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3329</v>
-      </c>
-      <c r="H5" s="2">
-        <v>234.45823454856799</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8.6791515350341797E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>28752</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20861</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7175</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1996</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6692</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3.4015417098999023E-2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>49725</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36205</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12383</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3710</v>
-      </c>
-      <c r="G7" s="2">
-        <v>11793</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.1171660423278809E-2</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>78403</v>
-      </c>
-      <c r="D8" s="2">
-        <v>57674</v>
-      </c>
-      <c r="E8" s="2">
-        <v>19649</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6227</v>
-      </c>
-      <c r="G8" s="2">
-        <v>18378</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4.6876072883605957E-2</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2">
-        <v>117083</v>
-      </c>
-      <c r="D9" s="2">
-        <v>86297</v>
-      </c>
-      <c r="E9" s="2">
-        <v>29316</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9314</v>
-      </c>
-      <c r="G9" s="2">
-        <v>27715</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.14332437515258789</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>166179</v>
-      </c>
-      <c r="D10" s="2">
-        <v>123103</v>
-      </c>
-      <c r="E10" s="2">
-        <v>41727</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14319</v>
-      </c>
-      <c r="G10" s="2">
-        <v>39189</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.19106400012969971</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
-        <v>229211</v>
-      </c>
-      <c r="D11" s="2">
-        <v>169121</v>
-      </c>
-      <c r="E11" s="2">
-        <v>57225</v>
-      </c>
-      <c r="F11" s="2">
-        <v>14720</v>
-      </c>
-      <c r="G11" s="2">
-        <v>55291</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.2484583854675293</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2">
-        <v>302805</v>
-      </c>
-      <c r="D12" s="2">
-        <v>225380</v>
-      </c>
-      <c r="E12" s="2">
-        <v>76153</v>
-      </c>
-      <c r="F12" s="2">
-        <v>28967</v>
-      </c>
-      <c r="G12" s="2">
-        <v>71618</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.31452488899230963</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2">
-        <v>392566</v>
-      </c>
-      <c r="D13" s="2">
-        <v>292909</v>
-      </c>
-      <c r="E13" s="2">
-        <v>98854</v>
-      </c>
-      <c r="F13" s="2">
-        <v>34954</v>
-      </c>
-      <c r="G13" s="2">
-        <v>92746</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.30891728401184082</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2">
-        <v>499551</v>
-      </c>
-      <c r="D14" s="2">
-        <v>372737</v>
-      </c>
-      <c r="E14" s="2">
-        <v>125671</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39784</v>
-      </c>
-      <c r="G14" s="2">
-        <v>118703</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.35452866554260248</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2">
-        <v>625063</v>
-      </c>
-      <c r="D15" s="2">
-        <v>465893</v>
-      </c>
-      <c r="E15" s="2">
-        <v>156947</v>
-      </c>
-      <c r="F15" s="2">
-        <v>48831</v>
-      </c>
-      <c r="G15" s="2">
-        <v>149763</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.82262802124023438</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2">
-        <v>765811</v>
-      </c>
-      <c r="D16" s="2">
-        <v>573406</v>
-      </c>
-      <c r="E16" s="2">
-        <v>193025</v>
-      </c>
-      <c r="F16" s="2">
-        <v>68078</v>
-      </c>
-      <c r="G16" s="2">
-        <v>181606</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1.0386486053466799</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2">
-        <v>931722</v>
-      </c>
-      <c r="D17" s="2">
-        <v>696305</v>
-      </c>
-      <c r="E17" s="2">
-        <v>234248</v>
-      </c>
-      <c r="F17" s="2">
-        <v>64427</v>
-      </c>
-      <c r="G17" s="2">
-        <v>223130</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.3778283596038821</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1118226</v>
-      </c>
-      <c r="D18" s="2">
-        <v>835619</v>
-      </c>
-      <c r="E18" s="2">
-        <v>280959</v>
-      </c>
-      <c r="F18" s="2">
-        <v>95202</v>
-      </c>
-      <c r="G18" s="2">
-        <v>268736</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.88483047485351563</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1326251</v>
-      </c>
-      <c r="D19" s="2">
-        <v>992377</v>
-      </c>
-      <c r="E19" s="2">
-        <v>333501</v>
-      </c>
-      <c r="F19" s="2">
-        <v>103638</v>
-      </c>
-      <c r="G19" s="2">
-        <v>318323</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.89656352996826172</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="2">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CC0F5-C572-4A21-8D3A-AC268A4D08C1}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3585,16 +2892,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>9</v>
@@ -3603,16 +2910,16 @@
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_7.txt</v>
+        <f t="shared" ref="A2:A19" si="0">CONCATENATE("fully_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_7.txt</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -3644,8 +2951,8 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_14.txt</v>
+        <f t="shared" si="0"/>
+        <v>fully_14.txt</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -3678,7 +2985,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_21.txt</v>
+        <v>fully_21.txt</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -3711,7 +3018,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_28.txt</v>
+        <v>fully_28.txt</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
@@ -3744,7 +3051,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_35.txt</v>
+        <v>fully_35.txt</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -3777,7 +3084,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_42.txt</v>
+        <v>fully_42.txt</v>
       </c>
       <c r="B7" s="2">
         <v>42</v>
@@ -3810,7 +3117,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_49.txt</v>
+        <v>fully_49.txt</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -3843,7 +3150,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_56.txt</v>
+        <v>fully_56.txt</v>
       </c>
       <c r="B9" s="2">
         <v>56</v>
@@ -3876,7 +3183,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_63.txt</v>
+        <v>fully_63.txt</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
@@ -3909,7 +3216,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_70.txt</v>
+        <v>fully_70.txt</v>
       </c>
       <c r="B11" s="2">
         <v>70</v>
@@ -3942,7 +3249,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_77.txt</v>
+        <v>fully_77.txt</v>
       </c>
       <c r="B12" s="2">
         <v>77</v>
@@ -3975,7 +3282,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_84.txt</v>
+        <v>fully_84.txt</v>
       </c>
       <c r="B13" s="2">
         <v>84</v>
@@ -4008,7 +3315,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_91.txt</v>
+        <v>fully_91.txt</v>
       </c>
       <c r="B14" s="2">
         <v>91</v>
@@ -4041,7 +3348,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_98.txt</v>
+        <v>fully_98.txt</v>
       </c>
       <c r="B15" s="2">
         <v>98</v>
@@ -4074,7 +3381,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_105.txt</v>
+        <v>fully_105.txt</v>
       </c>
       <c r="B16" s="2">
         <v>105</v>
@@ -4107,7 +3414,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_112.txt</v>
+        <v>fully_112.txt</v>
       </c>
       <c r="B17" s="2">
         <v>112</v>
@@ -4140,7 +3447,7 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_119.txt</v>
+        <v>fully_119.txt</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -4173,7 +3480,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_126.txt</v>
+        <v>fully_126.txt</v>
       </c>
       <c r="B19" s="2">
         <v>126</v>
@@ -4208,646 +3515,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089531AF-59C2-4DE1-9992-6C3F9EBDA09B}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>155</v>
-      </c>
-      <c r="D2" s="2">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.488196849822998E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.3070821762084959E-2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1289</v>
-      </c>
-      <c r="D3" s="2">
-        <v>469</v>
-      </c>
-      <c r="E3" s="2">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2">
-        <v>435</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7.7714800834655762E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.1780929565429688E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4432</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1561</v>
-      </c>
-      <c r="E4" s="2">
-        <v>334</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1494</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3087012767791748</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.34765827655792242</v>
-      </c>
-      <c r="I4" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10613</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3682</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1368</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3329</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.6644241809844971</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.462462425231934</v>
-      </c>
-      <c r="I5" s="2">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20861</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7175</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1996</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6692</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.1216448545455933</v>
-      </c>
-      <c r="H6" s="2">
-        <v>4.0258139371871948</v>
-      </c>
-      <c r="I6" s="2">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36205</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12383</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3710</v>
-      </c>
-      <c r="F7" s="2">
-        <v>11793</v>
-      </c>
-      <c r="G7" s="2">
-        <v>7.5070985555648804</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6.8840094804763794</v>
-      </c>
-      <c r="I7" s="2">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>57674</v>
-      </c>
-      <c r="D8" s="2">
-        <v>19649</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6227</v>
-      </c>
-      <c r="F8" s="2">
-        <v>18378</v>
-      </c>
-      <c r="G8" s="2">
-        <v>14.146625757217411</v>
-      </c>
-      <c r="H8" s="2">
-        <v>11.50104904174805</v>
-      </c>
-      <c r="I8" s="2">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2">
-        <v>86297</v>
-      </c>
-      <c r="D9" s="2">
-        <v>29316</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9314</v>
-      </c>
-      <c r="F9" s="2">
-        <v>27715</v>
-      </c>
-      <c r="G9" s="2">
-        <v>27.616925001144409</v>
-      </c>
-      <c r="H9" s="2">
-        <v>18.073684811592098</v>
-      </c>
-      <c r="I9" s="2">
-        <v>53</v>
-      </c>
-      <c r="J9" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>123103</v>
-      </c>
-      <c r="D10" s="2">
-        <v>41727</v>
-      </c>
-      <c r="E10" s="2">
-        <v>14319</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39189</v>
-      </c>
-      <c r="G10" s="2">
-        <v>40.914362549781799</v>
-      </c>
-      <c r="H10" s="2">
-        <v>21.53079271316528</v>
-      </c>
-      <c r="I10" s="2">
-        <v>61</v>
-      </c>
-      <c r="J10" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
-        <v>169121</v>
-      </c>
-      <c r="D11" s="2">
-        <v>57225</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14720</v>
-      </c>
-      <c r="F11" s="2">
-        <v>55291</v>
-      </c>
-      <c r="G11" s="2">
-        <v>52.19750189781189</v>
-      </c>
-      <c r="H11" s="2">
-        <v>36.937777280807502</v>
-      </c>
-      <c r="I11" s="2">
-        <v>68</v>
-      </c>
-      <c r="J11" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2">
-        <v>225380</v>
-      </c>
-      <c r="D12" s="2">
-        <v>76153</v>
-      </c>
-      <c r="E12" s="2">
-        <v>28967</v>
-      </c>
-      <c r="F12" s="2">
-        <v>71618</v>
-      </c>
-      <c r="G12" s="2">
-        <v>63.939985990524292</v>
-      </c>
-      <c r="H12" s="2">
-        <v>39.931895017623901</v>
-      </c>
-      <c r="I12" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2">
-        <v>292909</v>
-      </c>
-      <c r="D13" s="2">
-        <v>98854</v>
-      </c>
-      <c r="E13" s="2">
-        <v>34954</v>
-      </c>
-      <c r="F13" s="2">
-        <v>92746</v>
-      </c>
-      <c r="G13" s="2">
-        <v>89.242394924163818</v>
-      </c>
-      <c r="H13" s="2">
-        <v>52.385973215103149</v>
-      </c>
-      <c r="I13" s="2">
-        <v>84</v>
-      </c>
-      <c r="J13" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2">
-        <v>372737</v>
-      </c>
-      <c r="D14" s="2">
-        <v>125671</v>
-      </c>
-      <c r="E14" s="2">
-        <v>39784</v>
-      </c>
-      <c r="F14" s="2">
-        <v>118703</v>
-      </c>
-      <c r="G14" s="2">
-        <v>142.82056140899661</v>
-      </c>
-      <c r="H14" s="2">
-        <v>65.58626651763916</v>
-      </c>
-      <c r="I14" s="2">
-        <v>91</v>
-      </c>
-      <c r="J14" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2">
-        <v>465893</v>
-      </c>
-      <c r="D15" s="2">
-        <v>156947</v>
-      </c>
-      <c r="E15" s="2">
-        <v>48831</v>
-      </c>
-      <c r="F15" s="2">
-        <v>149763</v>
-      </c>
-      <c r="G15" s="2">
-        <v>150.74501395225519</v>
-      </c>
-      <c r="H15" s="2">
-        <v>98.79905104637146</v>
-      </c>
-      <c r="I15" s="2">
-        <v>96</v>
-      </c>
-      <c r="J15" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2">
-        <v>573406</v>
-      </c>
-      <c r="D16" s="2">
-        <v>193025</v>
-      </c>
-      <c r="E16" s="2">
-        <v>68078</v>
-      </c>
-      <c r="F16" s="2">
-        <v>181606</v>
-      </c>
-      <c r="G16" s="2">
-        <v>256.26329517364502</v>
-      </c>
-      <c r="H16" s="2">
-        <v>113.6600062847137</v>
-      </c>
-      <c r="I16" s="2">
-        <v>105</v>
-      </c>
-      <c r="J16" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2">
-        <v>696305</v>
-      </c>
-      <c r="D17" s="2">
-        <v>234248</v>
-      </c>
-      <c r="E17" s="2">
-        <v>64427</v>
-      </c>
-      <c r="F17" s="2">
-        <v>223130</v>
-      </c>
-      <c r="G17" s="2">
-        <v>581.14130473136902</v>
-      </c>
-      <c r="H17" s="2">
-        <v>128.30421304702759</v>
-      </c>
-      <c r="I17" s="2">
-        <v>110</v>
-      </c>
-      <c r="J17" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2">
-        <v>835619</v>
-      </c>
-      <c r="D18" s="2">
-        <v>280959</v>
-      </c>
-      <c r="E18" s="2">
-        <v>95202</v>
-      </c>
-      <c r="F18" s="2">
-        <v>268736</v>
-      </c>
-      <c r="G18" s="2">
-        <v>119.1600968837738</v>
-      </c>
-      <c r="H18" s="2">
-        <v>159.76762342453</v>
-      </c>
-      <c r="I18" s="2">
-        <v>117</v>
-      </c>
-      <c r="J18" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
-        <v>992377</v>
-      </c>
-      <c r="D19" s="2">
-        <v>333501</v>
-      </c>
-      <c r="E19" s="2">
-        <v>103638</v>
-      </c>
-      <c r="F19" s="2">
-        <v>318323</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1081.968217849731</v>
-      </c>
-      <c r="H19" s="2">
-        <v>107.38566255569459</v>
-      </c>
-      <c r="I19" s="2">
-        <v>126</v>
-      </c>
-      <c r="J19" s="2">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B9653B-E8AE-4924-95D0-FB94C9CBC99B}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
@@ -4891,25 +3563,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("fully_num_", (ROW(A1)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_7.txt</v>
+        <f t="shared" ref="A2:A19" si="0">CONCATENATE("fully_", (ROW(A1)-1)*7 + 7, ".txt")</f>
+        <v>fully_7.txt</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -4947,8 +3619,8 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE("fully_num_", (ROW(A2)-1)*7 + 7, ".txt")</f>
-        <v>fully_num_14.txt</v>
+        <f t="shared" si="0"/>
+        <v>fully_14.txt</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -4987,7 +3659,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_21.txt</v>
+        <v>fully_21.txt</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -5026,7 +3698,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_28.txt</v>
+        <v>fully_28.txt</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
@@ -5065,7 +3737,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_35.txt</v>
+        <v>fully_35.txt</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -5074,7 +3746,7 @@
         <v>1.563715934753418E-2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>1.9235134124755859E-2</v>
@@ -5089,7 +3761,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
         <v>35</v>
@@ -5104,7 +3776,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_42.txt</v>
+        <v>fully_42.txt</v>
       </c>
       <c r="B7" s="2">
         <v>42</v>
@@ -5113,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>3.072452545166016E-2</v>
@@ -5128,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
         <v>42</v>
@@ -5143,7 +3815,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_49.txt</v>
+        <v>fully_49.txt</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -5152,7 +3824,7 @@
         <v>1.555228233337402E-2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>3.8708209991455078E-2</v>
@@ -5167,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2">
         <v>49</v>
@@ -5182,7 +3854,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_56.txt</v>
+        <v>fully_56.txt</v>
       </c>
       <c r="B9" s="2">
         <v>56</v>
@@ -5191,7 +3863,7 @@
         <v>1.5642404556274411E-2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>6.7197322845458984E-2</v>
@@ -5206,7 +3878,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2">
         <v>56</v>
@@ -5221,7 +3893,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_63.txt</v>
+        <v>fully_63.txt</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
@@ -5230,7 +3902,7 @@
         <v>4.6793460845947273E-2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>8.9046716690063477E-2</v>
@@ -5245,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
         <v>63</v>
@@ -5260,7 +3932,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_70.txt</v>
+        <v>fully_70.txt</v>
       </c>
       <c r="B11" s="2">
         <v>70</v>
@@ -5269,7 +3941,7 @@
         <v>3.12495231628418E-2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>0.14618134498596189</v>
@@ -5284,7 +3956,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
         <v>70</v>
@@ -5299,7 +3971,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_77.txt</v>
+        <v>fully_77.txt</v>
       </c>
       <c r="B12" s="2">
         <v>77</v>
@@ -5308,7 +3980,7 @@
         <v>0.1094710826873779</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>0.1979711055755615</v>
@@ -5323,7 +3995,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>77</v>
@@ -5338,7 +4010,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_84.txt</v>
+        <v>fully_84.txt</v>
       </c>
       <c r="B13" s="2">
         <v>84</v>
@@ -5347,7 +4019,7 @@
         <v>6.6622734069824219E-2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
         <v>0.34612751007080078</v>
@@ -5362,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2">
         <v>84</v>
@@ -5377,7 +4049,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_91.txt</v>
+        <v>fully_91.txt</v>
       </c>
       <c r="B14" s="2">
         <v>91</v>
@@ -5386,7 +4058,7 @@
         <v>0.10425567626953119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2">
         <v>0.31664204597473139</v>
@@ -5401,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
         <v>91</v>
@@ -5416,7 +4088,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_98.txt</v>
+        <v>fully_98.txt</v>
       </c>
       <c r="B15" s="2">
         <v>98</v>
@@ -5425,7 +4097,7 @@
         <v>0.12416815757751461</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2">
         <v>0.3383631706237793</v>
@@ -5440,7 +4112,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2">
         <v>98</v>
@@ -5455,7 +4127,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_105.txt</v>
+        <v>fully_105.txt</v>
       </c>
       <c r="B16" s="2">
         <v>105</v>
@@ -5464,7 +4136,7 @@
         <v>0.12966156005859381</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>0.59724235534667969</v>
@@ -5479,7 +4151,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2">
         <v>105</v>
@@ -5494,7 +4166,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_112.txt</v>
+        <v>fully_112.txt</v>
       </c>
       <c r="B17" s="2">
         <v>112</v>
@@ -5503,7 +4175,7 @@
         <v>0.2453770637512207</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>0.52377843856811523</v>
@@ -5518,7 +4190,7 @@
         <v>17</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>112</v>
@@ -5533,7 +4205,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_119.txt</v>
+        <v>fully_119.txt</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -5542,7 +4214,7 @@
         <v>0.41666054725646973</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <v>1.0308103561401369</v>
@@ -5557,7 +4229,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>119</v>
@@ -5572,7 +4244,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>fully_num_126.txt</v>
+        <v>fully_126.txt</v>
       </c>
       <c r="B19" s="2">
         <v>126</v>
@@ -5581,7 +4253,7 @@
         <v>0.26571774482727051</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>1.1281857490539551</v>
@@ -5596,7 +4268,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2">
         <v>126</v>
@@ -5613,763 +4285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339C224-17C1-47A6-9745-85AB90BE229C}">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.5052556991577151E-3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.488196849822998E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.3070821762084959E-2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.4746866226196289E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.3007402420043951E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7.7714800834655762E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.1780929565429688E-2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.9506454467773441E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.2499322891235352E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3087012767791748</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.34765827655792242</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.498222351074219E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>234.45823454856799</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.6791515350341797E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.6644241809844971</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.462462425231934</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.4015417098999023E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.1216448545455933</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.0258139371871948</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.1171660423278809E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.5070985555648804</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.8840094804763794</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.3464560508728031E-2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.6876072883605957E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>14.146625757217411</v>
-      </c>
-      <c r="G8" s="2">
-        <v>11.50104904174805</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2">
-        <v>49</v>
-      </c>
-      <c r="K8" s="2">
-        <v>49</v>
-      </c>
-      <c r="L8" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.14332437515258789</v>
-      </c>
-      <c r="F9" s="2">
-        <v>27.616925001144409</v>
-      </c>
-      <c r="G9" s="2">
-        <v>18.073684811592098</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2">
-        <v>53</v>
-      </c>
-      <c r="L9" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.19106400012969971</v>
-      </c>
-      <c r="F10" s="2">
-        <v>40.914362549781799</v>
-      </c>
-      <c r="G10" s="2">
-        <v>21.53079271316528</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2">
-        <v>61</v>
-      </c>
-      <c r="K10" s="2">
-        <v>61</v>
-      </c>
-      <c r="L10" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.2484583854675293</v>
-      </c>
-      <c r="F11" s="2">
-        <v>52.19750189781189</v>
-      </c>
-      <c r="G11" s="2">
-        <v>36.937777280807502</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2">
-        <v>68</v>
-      </c>
-      <c r="K11" s="2">
-        <v>68</v>
-      </c>
-      <c r="L11" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4.5025348663330078E-2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.31452488899230963</v>
-      </c>
-      <c r="F12" s="2">
-        <v>63.939985990524292</v>
-      </c>
-      <c r="G12" s="2">
-        <v>39.931895017623901</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="2">
-        <v>77</v>
-      </c>
-      <c r="K12" s="2">
-        <v>77</v>
-      </c>
-      <c r="L12" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7.6649665832519531E-2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.30891728401184082</v>
-      </c>
-      <c r="F13" s="2">
-        <v>89.242394924163818</v>
-      </c>
-      <c r="G13" s="2">
-        <v>52.385973215103149</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="2">
-        <v>84</v>
-      </c>
-      <c r="K13" s="2">
-        <v>84</v>
-      </c>
-      <c r="L13" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.176422119140625E-2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.35452866554260248</v>
-      </c>
-      <c r="F14" s="2">
-        <v>142.82056140899661</v>
-      </c>
-      <c r="G14" s="2">
-        <v>65.58626651763916</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="2">
-        <v>91</v>
-      </c>
-      <c r="K14" s="2">
-        <v>91</v>
-      </c>
-      <c r="L14" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.82262802124023438</v>
-      </c>
-      <c r="F15" s="2">
-        <v>150.74501395225519</v>
-      </c>
-      <c r="G15" s="2">
-        <v>98.79905104637146</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="2">
-        <v>96</v>
-      </c>
-      <c r="K15" s="2">
-        <v>96</v>
-      </c>
-      <c r="L15" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.1391708850860596</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.0386486053466799</v>
-      </c>
-      <c r="F16" s="2">
-        <v>256.26329517364502</v>
-      </c>
-      <c r="G16" s="2">
-        <v>113.6600062847137</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="2">
-        <v>105</v>
-      </c>
-      <c r="K16" s="2">
-        <v>105</v>
-      </c>
-      <c r="L16" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.3778283596038821</v>
-      </c>
-      <c r="F17" s="2">
-        <v>581.14130473136902</v>
-      </c>
-      <c r="G17" s="2">
-        <v>128.30421304702759</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="2">
-        <v>110</v>
-      </c>
-      <c r="K17" s="2">
-        <v>110</v>
-      </c>
-      <c r="L17" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.88483047485351563</v>
-      </c>
-      <c r="F18" s="2">
-        <v>119.1600968837738</v>
-      </c>
-      <c r="G18" s="2">
-        <v>159.76762342453</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="2">
-        <v>117</v>
-      </c>
-      <c r="K18" s="2">
-        <v>117</v>
-      </c>
-      <c r="L18" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.49610137939453119</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.89656352996826172</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1081.968217849731</v>
-      </c>
-      <c r="G19" s="2">
-        <v>107.38566255569459</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="2">
-        <v>126</v>
-      </c>
-      <c r="K19" s="2">
-        <v>126</v>
-      </c>
-      <c r="L19" s="2">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22BC2E9-CE8A-42B6-A72D-7B1F3640A090}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6404,16 +4325,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -6431,24 +4352,24 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -6484,7 +4405,7 @@
         <v>1.3070821762084959E-2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2">
         <v>2</v>
@@ -6501,7 +4422,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -6537,7 +4458,7 @@
         <v>6.1780929565429688E-2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2">
         <v>11</v>
@@ -6554,7 +4475,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>21</v>
@@ -6590,7 +4511,7 @@
         <v>0.34765827655792242</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2">
         <v>18</v>
@@ -6607,7 +4528,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>28</v>
@@ -6660,7 +4581,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
@@ -6684,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2">
         <v>3.4015417098999023E-2</v>
@@ -6696,10 +4617,10 @@
         <v>4.0258139371871948</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2">
         <v>33</v>
@@ -6713,7 +4634,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>42</v>
@@ -6737,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2">
         <v>5.1171660423278809E-2</v>
@@ -6749,10 +4670,10 @@
         <v>6.8840094804763794</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2">
         <v>40</v>
@@ -6766,7 +4687,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>49</v>
@@ -6790,7 +4711,7 @@
         <v>2.3464560508728031E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2">
         <v>4.6876072883605957E-2</v>
@@ -6805,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2">
         <v>49</v>
@@ -6819,7 +4740,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>56</v>
@@ -6843,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
         <v>0.14332437515258789</v>
@@ -6855,10 +4776,10 @@
         <v>18.073684811592098</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2">
         <v>53</v>
@@ -6872,7 +4793,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
         <v>63</v>
@@ -6896,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2">
         <v>0.19106400012969971</v>
@@ -6908,10 +4829,10 @@
         <v>21.53079271316528</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2">
         <v>61</v>
@@ -6925,7 +4846,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>70</v>
@@ -6949,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2">
         <v>0.2484583854675293</v>
@@ -6961,10 +4882,10 @@
         <v>36.937777280807502</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2">
         <v>68</v>
@@ -6978,7 +4899,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>77</v>
@@ -7002,7 +4923,7 @@
         <v>4.5025348663330078E-2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J12" s="2">
         <v>0.31452488899230963</v>
@@ -7017,7 +4938,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2">
         <v>77</v>
@@ -7031,7 +4952,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>84</v>
@@ -7055,7 +4976,7 @@
         <v>7.6649665832519531E-2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2">
         <v>0.30891728401184082</v>
@@ -7070,7 +4991,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2">
         <v>84</v>
@@ -7084,7 +5005,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>91</v>
@@ -7108,7 +5029,7 @@
         <v>8.176422119140625E-2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2">
         <v>0.35452866554260248</v>
@@ -7123,7 +5044,7 @@
         <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2">
         <v>91</v>
@@ -7137,7 +5058,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>98</v>
@@ -7161,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J15" s="2">
         <v>0.82262802124023438</v>
@@ -7173,10 +5094,10 @@
         <v>98.79905104637146</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2">
         <v>96</v>
@@ -7190,7 +5111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>105</v>
@@ -7214,7 +5135,7 @@
         <v>0.1391708850860596</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J16" s="2">
         <v>1.0386486053466799</v>
@@ -7229,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O16" s="2">
         <v>105</v>
@@ -7243,7 +5164,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>112</v>
@@ -7267,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2">
         <v>1.3778283596038821</v>
@@ -7279,10 +5200,10 @@
         <v>128.30421304702759</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O17" s="2">
         <v>110</v>
@@ -7296,7 +5217,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -7320,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J18" s="2">
         <v>0.88483047485351563</v>
@@ -7332,10 +5253,10 @@
         <v>159.76762342453</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2">
         <v>117</v>
@@ -7349,7 +5270,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>126</v>
@@ -7373,7 +5294,7 @@
         <v>0.49610137939453119</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J19" s="2">
         <v>0.89656352996826172</v>
@@ -7388,7 +5309,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="O19" s="2">
         <v>126</v>
@@ -7397,6 +5318,2085 @@
         <v>126</v>
       </c>
       <c r="Q19" s="2">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D2418-A170-404D-AFE7-0A23660157D4}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>256</v>
+      </c>
+      <c r="D2" s="2">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.5052556991577151E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1915</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1289</v>
+      </c>
+      <c r="E3" s="2">
+        <v>469</v>
+      </c>
+      <c r="F3" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2">
+        <v>435</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.4746866226196289E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.3007402420043951E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6357</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4432</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1561</v>
+      </c>
+      <c r="F4" s="2">
+        <v>334</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1494</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.9506454467773441E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.2499322891235352E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14709</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10613</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3682</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1368</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3329</v>
+      </c>
+      <c r="H5" s="2">
+        <v>234.45823454856799</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.6791515350341797E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>28752</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20861</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7175</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1996</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6692</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.4015417098999023E-2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>49725</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36205</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12383</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3710</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11793</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.1171660423278809E-2</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>78403</v>
+      </c>
+      <c r="D8" s="2">
+        <v>57674</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19649</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6227</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18378</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.6876072883605957E-2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>117083</v>
+      </c>
+      <c r="D9" s="2">
+        <v>86297</v>
+      </c>
+      <c r="E9" s="2">
+        <v>29316</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9314</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27715</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.14332437515258789</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>166179</v>
+      </c>
+      <c r="D10" s="2">
+        <v>123103</v>
+      </c>
+      <c r="E10" s="2">
+        <v>41727</v>
+      </c>
+      <c r="F10" s="2">
+        <v>14319</v>
+      </c>
+      <c r="G10" s="2">
+        <v>39189</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.19106400012969971</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2">
+        <v>229211</v>
+      </c>
+      <c r="D11" s="2">
+        <v>169121</v>
+      </c>
+      <c r="E11" s="2">
+        <v>57225</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14720</v>
+      </c>
+      <c r="G11" s="2">
+        <v>55291</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2484583854675293</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>302805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>225380</v>
+      </c>
+      <c r="E12" s="2">
+        <v>76153</v>
+      </c>
+      <c r="F12" s="2">
+        <v>28967</v>
+      </c>
+      <c r="G12" s="2">
+        <v>71618</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.31452488899230963</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>392566</v>
+      </c>
+      <c r="D13" s="2">
+        <v>292909</v>
+      </c>
+      <c r="E13" s="2">
+        <v>98854</v>
+      </c>
+      <c r="F13" s="2">
+        <v>34954</v>
+      </c>
+      <c r="G13" s="2">
+        <v>92746</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.30891728401184082</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2">
+        <v>499551</v>
+      </c>
+      <c r="D14" s="2">
+        <v>372737</v>
+      </c>
+      <c r="E14" s="2">
+        <v>125671</v>
+      </c>
+      <c r="F14" s="2">
+        <v>39784</v>
+      </c>
+      <c r="G14" s="2">
+        <v>118703</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.35452866554260248</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2">
+        <v>625063</v>
+      </c>
+      <c r="D15" s="2">
+        <v>465893</v>
+      </c>
+      <c r="E15" s="2">
+        <v>156947</v>
+      </c>
+      <c r="F15" s="2">
+        <v>48831</v>
+      </c>
+      <c r="G15" s="2">
+        <v>149763</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.82262802124023438</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2">
+        <v>765811</v>
+      </c>
+      <c r="D16" s="2">
+        <v>573406</v>
+      </c>
+      <c r="E16" s="2">
+        <v>193025</v>
+      </c>
+      <c r="F16" s="2">
+        <v>68078</v>
+      </c>
+      <c r="G16" s="2">
+        <v>181606</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.0386486053466799</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2">
+        <v>931722</v>
+      </c>
+      <c r="D17" s="2">
+        <v>696305</v>
+      </c>
+      <c r="E17" s="2">
+        <v>234248</v>
+      </c>
+      <c r="F17" s="2">
+        <v>64427</v>
+      </c>
+      <c r="G17" s="2">
+        <v>223130</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.3778283596038821</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1118226</v>
+      </c>
+      <c r="D18" s="2">
+        <v>835619</v>
+      </c>
+      <c r="E18" s="2">
+        <v>280959</v>
+      </c>
+      <c r="F18" s="2">
+        <v>95202</v>
+      </c>
+      <c r="G18" s="2">
+        <v>268736</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.88483047485351563</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1326251</v>
+      </c>
+      <c r="D19" s="2">
+        <v>992377</v>
+      </c>
+      <c r="E19" s="2">
+        <v>333501</v>
+      </c>
+      <c r="F19" s="2">
+        <v>103638</v>
+      </c>
+      <c r="G19" s="2">
+        <v>318323</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.89656352996826172</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089531AF-59C2-4DE1-9992-6C3F9EBDA09B}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>155</v>
+      </c>
+      <c r="D2" s="2">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.488196849822998E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.3070821762084959E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1289</v>
+      </c>
+      <c r="D3" s="2">
+        <v>469</v>
+      </c>
+      <c r="E3" s="2">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2">
+        <v>435</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.7714800834655762E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.1780929565429688E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4432</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1561</v>
+      </c>
+      <c r="E4" s="2">
+        <v>334</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1494</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.3087012767791748</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.34765827655792242</v>
+      </c>
+      <c r="I4" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10613</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3682</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1368</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3329</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.6644241809844971</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.462462425231934</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20861</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7175</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1996</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6692</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.1216448545455933</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.0258139371871948</v>
+      </c>
+      <c r="I6" s="2">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>36205</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12383</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3710</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11793</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.5070985555648804</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.8840094804763794</v>
+      </c>
+      <c r="I7" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>57674</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19649</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6227</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18378</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14.146625757217411</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11.50104904174805</v>
+      </c>
+      <c r="I8" s="2">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>86297</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29316</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9314</v>
+      </c>
+      <c r="F9" s="2">
+        <v>27715</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27.616925001144409</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.073684811592098</v>
+      </c>
+      <c r="I9" s="2">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>123103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41727</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14319</v>
+      </c>
+      <c r="F10" s="2">
+        <v>39189</v>
+      </c>
+      <c r="G10" s="2">
+        <v>40.914362549781799</v>
+      </c>
+      <c r="H10" s="2">
+        <v>21.53079271316528</v>
+      </c>
+      <c r="I10" s="2">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2">
+        <v>169121</v>
+      </c>
+      <c r="D11" s="2">
+        <v>57225</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14720</v>
+      </c>
+      <c r="F11" s="2">
+        <v>55291</v>
+      </c>
+      <c r="G11" s="2">
+        <v>52.19750189781189</v>
+      </c>
+      <c r="H11" s="2">
+        <v>36.937777280807502</v>
+      </c>
+      <c r="I11" s="2">
+        <v>68</v>
+      </c>
+      <c r="J11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>225380</v>
+      </c>
+      <c r="D12" s="2">
+        <v>76153</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28967</v>
+      </c>
+      <c r="F12" s="2">
+        <v>71618</v>
+      </c>
+      <c r="G12" s="2">
+        <v>63.939985990524292</v>
+      </c>
+      <c r="H12" s="2">
+        <v>39.931895017623901</v>
+      </c>
+      <c r="I12" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>292909</v>
+      </c>
+      <c r="D13" s="2">
+        <v>98854</v>
+      </c>
+      <c r="E13" s="2">
+        <v>34954</v>
+      </c>
+      <c r="F13" s="2">
+        <v>92746</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89.242394924163818</v>
+      </c>
+      <c r="H13" s="2">
+        <v>52.385973215103149</v>
+      </c>
+      <c r="I13" s="2">
+        <v>84</v>
+      </c>
+      <c r="J13" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2">
+        <v>372737</v>
+      </c>
+      <c r="D14" s="2">
+        <v>125671</v>
+      </c>
+      <c r="E14" s="2">
+        <v>39784</v>
+      </c>
+      <c r="F14" s="2">
+        <v>118703</v>
+      </c>
+      <c r="G14" s="2">
+        <v>142.82056140899661</v>
+      </c>
+      <c r="H14" s="2">
+        <v>65.58626651763916</v>
+      </c>
+      <c r="I14" s="2">
+        <v>91</v>
+      </c>
+      <c r="J14" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2">
+        <v>465893</v>
+      </c>
+      <c r="D15" s="2">
+        <v>156947</v>
+      </c>
+      <c r="E15" s="2">
+        <v>48831</v>
+      </c>
+      <c r="F15" s="2">
+        <v>149763</v>
+      </c>
+      <c r="G15" s="2">
+        <v>150.74501395225519</v>
+      </c>
+      <c r="H15" s="2">
+        <v>98.79905104637146</v>
+      </c>
+      <c r="I15" s="2">
+        <v>96</v>
+      </c>
+      <c r="J15" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2">
+        <v>573406</v>
+      </c>
+      <c r="D16" s="2">
+        <v>193025</v>
+      </c>
+      <c r="E16" s="2">
+        <v>68078</v>
+      </c>
+      <c r="F16" s="2">
+        <v>181606</v>
+      </c>
+      <c r="G16" s="2">
+        <v>256.26329517364502</v>
+      </c>
+      <c r="H16" s="2">
+        <v>113.6600062847137</v>
+      </c>
+      <c r="I16" s="2">
+        <v>105</v>
+      </c>
+      <c r="J16" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2">
+        <v>696305</v>
+      </c>
+      <c r="D17" s="2">
+        <v>234248</v>
+      </c>
+      <c r="E17" s="2">
+        <v>64427</v>
+      </c>
+      <c r="F17" s="2">
+        <v>223130</v>
+      </c>
+      <c r="G17" s="2">
+        <v>581.14130473136902</v>
+      </c>
+      <c r="H17" s="2">
+        <v>128.30421304702759</v>
+      </c>
+      <c r="I17" s="2">
+        <v>110</v>
+      </c>
+      <c r="J17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2">
+        <v>835619</v>
+      </c>
+      <c r="D18" s="2">
+        <v>280959</v>
+      </c>
+      <c r="E18" s="2">
+        <v>95202</v>
+      </c>
+      <c r="F18" s="2">
+        <v>268736</v>
+      </c>
+      <c r="G18" s="2">
+        <v>119.1600968837738</v>
+      </c>
+      <c r="H18" s="2">
+        <v>159.76762342453</v>
+      </c>
+      <c r="I18" s="2">
+        <v>117</v>
+      </c>
+      <c r="J18" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2">
+        <v>992377</v>
+      </c>
+      <c r="D19" s="2">
+        <v>333501</v>
+      </c>
+      <c r="E19" s="2">
+        <v>103638</v>
+      </c>
+      <c r="F19" s="2">
+        <v>318323</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1081.968217849731</v>
+      </c>
+      <c r="H19" s="2">
+        <v>107.38566255569459</v>
+      </c>
+      <c r="I19" s="2">
+        <v>126</v>
+      </c>
+      <c r="J19" s="2">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3339C224-17C1-47A6-9745-85AB90BE229C}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.5052556991577151E-3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.488196849822998E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.3070821762084959E-2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.4746866226196289E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.3007402420043951E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.7714800834655762E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.1780929565429688E-2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.9506454467773441E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2499322891235352E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.3087012767791748</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.34765827655792242</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.498222351074219E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>234.45823454856799</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.6791515350341797E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.6644241809844971</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.462462425231934</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.4015417098999023E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.1216448545455933</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.0258139371871948</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.1171660423278809E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.5070985555648804</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.8840094804763794</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.3464560508728031E-2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.6876072883605957E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14.146625757217411</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11.50104904174805</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.14332437515258789</v>
+      </c>
+      <c r="F9" s="2">
+        <v>27.616925001144409</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18.073684811592098</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2">
+        <v>53</v>
+      </c>
+      <c r="L9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.19106400012969971</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40.914362549781799</v>
+      </c>
+      <c r="G10" s="2">
+        <v>21.53079271316528</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <v>61</v>
+      </c>
+      <c r="K10" s="2">
+        <v>61</v>
+      </c>
+      <c r="L10" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.2484583854675293</v>
+      </c>
+      <c r="F11" s="2">
+        <v>52.19750189781189</v>
+      </c>
+      <c r="G11" s="2">
+        <v>36.937777280807502</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2">
+        <v>68</v>
+      </c>
+      <c r="L11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.5025348663330078E-2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.31452488899230963</v>
+      </c>
+      <c r="F12" s="2">
+        <v>63.939985990524292</v>
+      </c>
+      <c r="G12" s="2">
+        <v>39.931895017623901</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>77</v>
+      </c>
+      <c r="K12" s="2">
+        <v>77</v>
+      </c>
+      <c r="L12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.6649665832519531E-2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.30891728401184082</v>
+      </c>
+      <c r="F13" s="2">
+        <v>89.242394924163818</v>
+      </c>
+      <c r="G13" s="2">
+        <v>52.385973215103149</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <v>84</v>
+      </c>
+      <c r="K13" s="2">
+        <v>84</v>
+      </c>
+      <c r="L13" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.176422119140625E-2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.35452866554260248</v>
+      </c>
+      <c r="F14" s="2">
+        <v>142.82056140899661</v>
+      </c>
+      <c r="G14" s="2">
+        <v>65.58626651763916</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2">
+        <v>91</v>
+      </c>
+      <c r="K14" s="2">
+        <v>91</v>
+      </c>
+      <c r="L14" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.82262802124023438</v>
+      </c>
+      <c r="F15" s="2">
+        <v>150.74501395225519</v>
+      </c>
+      <c r="G15" s="2">
+        <v>98.79905104637146</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2">
+        <v>96</v>
+      </c>
+      <c r="K15" s="2">
+        <v>96</v>
+      </c>
+      <c r="L15" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.1391708850860596</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0386486053466799</v>
+      </c>
+      <c r="F16" s="2">
+        <v>256.26329517364502</v>
+      </c>
+      <c r="G16" s="2">
+        <v>113.6600062847137</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>105</v>
+      </c>
+      <c r="K16" s="2">
+        <v>105</v>
+      </c>
+      <c r="L16" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.3778283596038821</v>
+      </c>
+      <c r="F17" s="2">
+        <v>581.14130473136902</v>
+      </c>
+      <c r="G17" s="2">
+        <v>128.30421304702759</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2">
+        <v>110</v>
+      </c>
+      <c r="K17" s="2">
+        <v>110</v>
+      </c>
+      <c r="L17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.88483047485351563</v>
+      </c>
+      <c r="F18" s="2">
+        <v>119.1600968837738</v>
+      </c>
+      <c r="G18" s="2">
+        <v>159.76762342453</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>117</v>
+      </c>
+      <c r="K18" s="2">
+        <v>117</v>
+      </c>
+      <c r="L18" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.49610137939453119</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.89656352996826172</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1081.968217849731</v>
+      </c>
+      <c r="G19" s="2">
+        <v>107.38566255569459</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2">
+        <v>126</v>
+      </c>
+      <c r="K19" s="2">
+        <v>126</v>
+      </c>
+      <c r="L19" s="2">
         <v>126</v>
       </c>
     </row>
